--- a/server/src/uploads/sample1.xlsx
+++ b/server/src/uploads/sample1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>2000</t>
   </si>
@@ -432,16 +432,19 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222222222222222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills>
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders>
     <border>
       <left/>
       <right/>
@@ -919,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1267,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E391"/>
+  <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1286,42 +1289,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>70</v>
+      <c r="A2" s="4">
+        <v>2121</v>
       </c>
       <c r="B2">
         <v>456</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3">
         <v>2011</v>
       </c>
       <c r="E2" s="1">
-        <v>84219.497310686638</v>
+        <v>84219.49731068664</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>54</v>
+      <c r="A3" s="4">
+        <v>2092</v>
       </c>
       <c r="B3">
         <v>789</v>
@@ -1333,12 +1336,12 @@
         <v>2012</v>
       </c>
       <c r="E3" s="1">
-        <v>28322.192267852119</v>
+        <v>28322.19226785212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>74</v>
+      <c r="A4" s="4">
+        <v>2128</v>
       </c>
       <c r="B4">
         <v>456</v>
@@ -1350,136 +1353,136 @@
         <v>2013</v>
       </c>
       <c r="E4" s="1">
-        <v>81878.997241441728</v>
+        <v>81878.99724144173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>49</v>
+      <c r="A5" s="4">
+        <v>2073</v>
       </c>
       <c r="B5" s="3">
         <v>123</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D5" s="3">
         <v>2011</v>
       </c>
       <c r="E5" s="1">
-        <v>44491.142121086457</v>
+        <v>44491.14212108646</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>79</v>
+      <c r="A6" s="4">
+        <v>2134</v>
       </c>
       <c r="B6" s="3">
         <v>789</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D6" s="3">
         <v>2012</v>
       </c>
       <c r="E6" s="1">
-        <v>71837.720959189814</v>
+        <v>71837.72095918981</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>95</v>
+      <c r="A7" s="4">
+        <v>2162</v>
       </c>
       <c r="B7" s="3">
         <v>123</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D7" s="3">
         <v>2013</v>
       </c>
       <c r="E7" s="1">
-        <v>64531.549253970232</v>
+        <v>64531.54925397023</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>55</v>
+      <c r="A8" s="4">
+        <v>2093</v>
       </c>
       <c r="B8" s="3">
         <v>456</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D8" s="3">
         <v>2011</v>
       </c>
       <c r="E8" s="1">
-        <v>58962.639831844943</v>
+        <v>58962.63983184494</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
+      <c r="A9" s="4">
+        <v>2042</v>
       </c>
       <c r="B9" s="3">
         <v>789</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D9" s="3">
         <v>2012</v>
       </c>
       <c r="E9" s="1">
-        <v>27521.791964290431</v>
+        <v>27521.79196429043</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>109</v>
+      <c r="A10" s="4">
+        <v>2198</v>
       </c>
       <c r="B10" s="3">
         <v>123</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D10" s="3">
         <v>2013</v>
       </c>
       <c r="E10" s="1">
-        <v>77985.126101154892</v>
+        <v>77985.12610115489</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
+      <c r="A11" s="4">
+        <v>2043</v>
       </c>
       <c r="B11" s="3">
         <v>789</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D11" s="3">
         <v>2011</v>
       </c>
       <c r="E11" s="1">
-        <v>49546.123316538571</v>
+        <v>49546.12331653857</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
+      <c r="A12" s="4">
+        <v>2025</v>
       </c>
       <c r="B12" s="3">
         <v>789</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D12" s="3">
@@ -1490,47 +1493,47 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
+      <c r="A13" s="4">
+        <v>2045</v>
       </c>
       <c r="B13" s="3">
         <v>456</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D13" s="3">
         <v>2013</v>
       </c>
       <c r="E13" s="1">
-        <v>91125.995923056413</v>
+        <v>91125.99592305641</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
+      <c r="A14" s="4">
+        <v>2090</v>
       </c>
       <c r="B14" s="3">
         <v>456</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D14" s="3">
         <v>2011</v>
       </c>
       <c r="E14" s="1">
-        <v>48112.764779075267</v>
+        <v>48112.76477907527</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>64</v>
+      <c r="A15" s="4">
+        <v>2114</v>
       </c>
       <c r="B15" s="3">
         <v>456</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D15" s="3">
@@ -1541,64 +1544,64 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>84</v>
+      <c r="A16" s="4">
+        <v>2142</v>
       </c>
       <c r="B16" s="3">
         <v>456</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D16" s="3">
         <v>2013</v>
       </c>
       <c r="E16" s="1">
-        <v>50911.554904745972</v>
+        <v>50911.55490474597</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
+      <c r="A17" s="4">
+        <v>2062</v>
       </c>
       <c r="B17" s="3">
         <v>123</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D17" s="3">
         <v>2011</v>
       </c>
       <c r="E17" s="1">
-        <v>75538.869740901355</v>
+        <v>75538.86974090135</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
+      <c r="A18" s="4">
+        <v>2049</v>
       </c>
       <c r="B18" s="3">
         <v>456</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D18" s="3">
         <v>2012</v>
       </c>
       <c r="E18" s="1">
-        <v>96922.328344729191</v>
+        <v>96922.32834472919</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>113</v>
+      <c r="A19" s="4">
+        <v>2204</v>
       </c>
       <c r="B19" s="3">
         <v>456</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D19" s="3">
@@ -1609,30 +1612,30 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
+      <c r="A20" s="4">
+        <v>2000</v>
       </c>
       <c r="B20" s="3">
         <v>456</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D20" s="3">
         <v>2011</v>
       </c>
       <c r="E20" s="1">
-        <v>4529.7485636333286</v>
+        <v>4529.748563633329</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>80</v>
+      <c r="A21" s="4">
+        <v>2135</v>
       </c>
       <c r="B21" s="3">
         <v>123</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D21" s="3">
@@ -1643,30 +1646,30 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
+      <c r="A22" s="4">
+        <v>2115</v>
       </c>
       <c r="B22" s="3">
         <v>456</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D22" s="3">
         <v>2013</v>
       </c>
       <c r="E22" s="1">
-        <v>22772.698377885881</v>
+        <v>22772.69837788588</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
+      <c r="A23" s="4">
+        <v>2032</v>
       </c>
       <c r="B23" s="3">
         <v>789</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D23" s="3">
@@ -1677,30 +1680,30 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>44</v>
+      <c r="A24" s="4">
+        <v>2068</v>
       </c>
       <c r="B24" s="3">
         <v>456</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D24" s="3">
         <v>2012</v>
       </c>
       <c r="E24" s="1">
-        <v>66043.702355874731</v>
+        <v>66043.70235587473</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>69</v>
+      <c r="A25" s="4">
+        <v>2119</v>
       </c>
       <c r="B25" s="3">
         <v>789</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D25" s="3">
@@ -1711,30 +1714,30 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>36</v>
+      <c r="A26" s="4">
+        <v>2060</v>
       </c>
       <c r="B26" s="3">
         <v>456</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D26" s="3">
         <v>2011</v>
       </c>
       <c r="E26" s="1">
-        <v>75822.406617070985</v>
+        <v>75822.40661707098</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>48</v>
+      <c r="A27" s="4">
+        <v>2072</v>
       </c>
       <c r="B27" s="3">
         <v>456</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D27" s="3">
@@ -1745,30 +1748,30 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
+      <c r="A28" s="4">
+        <v>2045</v>
       </c>
       <c r="B28" s="3">
         <v>123</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D28" s="3">
         <v>2013</v>
       </c>
       <c r="E28" s="1">
-        <v>95816.702886788757</v>
+        <v>95816.70288678876</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>128</v>
+      <c r="A29" s="4">
+        <v>2140</v>
       </c>
       <c r="B29" s="3">
         <v>456</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D29" s="3">
@@ -1779,98 +1782,98 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>114</v>
+      <c r="A30" s="4">
+        <v>2205</v>
       </c>
       <c r="B30" s="3">
         <v>789</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D30" s="3">
         <v>2012</v>
       </c>
       <c r="E30" s="1">
-        <v>93306.119892407529</v>
+        <v>93306.11989240753</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
+      <c r="A31" s="4">
+        <v>2060</v>
       </c>
       <c r="B31" s="3">
         <v>123</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D31" s="3">
         <v>2013</v>
       </c>
       <c r="E31" s="1">
-        <v>71321.531951580851</v>
+        <v>71321.53195158085</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>28</v>
+      <c r="A32" s="4">
+        <v>2042</v>
       </c>
       <c r="B32" s="3">
         <v>456</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D32" s="3">
         <v>2011</v>
       </c>
       <c r="E32" s="1">
-        <v>92022.656223458893</v>
+        <v>92022.6562234589</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>68</v>
+      <c r="A33" s="4">
+        <v>2118</v>
       </c>
       <c r="B33" s="3">
         <v>123</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D33" s="3">
         <v>2012</v>
       </c>
       <c r="E33" s="1">
-        <v>40654.841192980639</v>
+        <v>40654.84119298064</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>82</v>
+      <c r="A34" s="4">
+        <v>2137</v>
       </c>
       <c r="B34" s="3">
         <v>789</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D34" s="3">
         <v>2013</v>
       </c>
       <c r="E34" s="1">
-        <v>95517.979687463172</v>
+        <v>95517.97968746317</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>10</v>
+      <c r="A35" s="4">
+        <v>2021</v>
       </c>
       <c r="B35" s="3">
         <v>789</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D35" s="3">
@@ -1881,47 +1884,47 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>30</v>
+      <c r="A36" s="4">
+        <v>2044</v>
       </c>
       <c r="B36" s="3">
         <v>123</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D36" s="3">
         <v>2012</v>
       </c>
       <c r="E36" s="1">
-        <v>65165.632575414878</v>
+        <v>65165.63257541488</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
+      <c r="A37" s="4">
+        <v>2008</v>
       </c>
       <c r="B37" s="3">
         <v>789</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D37" s="3">
         <v>2013</v>
       </c>
       <c r="E37" s="1">
-        <v>52575.682647052359</v>
+        <v>52575.68264705236</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>84</v>
+      <c r="A38" s="4">
+        <v>2142</v>
       </c>
       <c r="B38" s="3">
         <v>789</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D38" s="3">
@@ -1932,13 +1935,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>16</v>
+      <c r="A39" s="4">
+        <v>2027</v>
       </c>
       <c r="B39" s="3">
         <v>456</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D39" s="3">
@@ -1949,13 +1952,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
+      <c r="A40" s="4">
+        <v>2110</v>
       </c>
       <c r="B40" s="3">
         <v>456</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D40" s="3">
@@ -1966,47 +1969,47 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>82</v>
+      <c r="A41" s="4">
+        <v>2137</v>
       </c>
       <c r="B41" s="3">
         <v>123</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D41" s="3">
         <v>2011</v>
       </c>
       <c r="E41" s="1">
-        <v>83085.264142901753</v>
+        <v>83085.26414290175</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>97</v>
+      <c r="A42" s="4">
+        <v>2164</v>
       </c>
       <c r="B42" s="3">
         <v>789</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D42" s="3">
         <v>2012</v>
       </c>
       <c r="E42" s="1">
-        <v>82490.328207309605</v>
+        <v>82490.3282073096</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>43</v>
+      <c r="A43" s="4">
+        <v>2067</v>
       </c>
       <c r="B43" s="3">
         <v>789</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D43" s="3">
@@ -2017,13 +2020,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>60</v>
+      <c r="A44" s="4">
+        <v>2100</v>
       </c>
       <c r="B44" s="3">
         <v>123</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D44" s="3">
@@ -2034,30 +2037,30 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>21</v>
+      <c r="A45" s="4">
+        <v>2032</v>
       </c>
       <c r="B45" s="3">
         <v>456</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D45" s="3">
         <v>2012</v>
       </c>
       <c r="E45" s="1">
-        <v>81537.510415725847</v>
+        <v>81537.51041572585</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>24</v>
+      <c r="A46" s="4">
+        <v>2038</v>
       </c>
       <c r="B46" s="3">
         <v>789</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D46" s="3">
@@ -2068,47 +2071,47 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>5</v>
+      <c r="A47" s="4">
+        <v>2011</v>
       </c>
       <c r="B47" s="3">
         <v>123</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D47" s="3">
         <v>2011</v>
       </c>
       <c r="E47" s="1">
-        <v>8501.9372860340773</v>
+        <v>8501.937286034077</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>85</v>
+      <c r="A48" s="4">
+        <v>2143</v>
       </c>
       <c r="B48" s="3">
         <v>789</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D48" s="3">
         <v>2012</v>
       </c>
       <c r="E48" s="1">
-        <v>41609.578826193509</v>
+        <v>41609.57882619351</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>100</v>
+      <c r="A49" s="4">
+        <v>2170</v>
       </c>
       <c r="B49" s="3">
         <v>456</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D49" s="3">
@@ -2119,64 +2122,64 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>35</v>
+      <c r="A50" s="4">
+        <v>2049</v>
       </c>
       <c r="B50" s="3">
         <v>789</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D50" s="3">
         <v>2011</v>
       </c>
       <c r="E50" s="1">
-        <v>87702.153933134046</v>
+        <v>87702.15393313405</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>50</v>
+      <c r="A51" s="4">
+        <v>2086</v>
       </c>
       <c r="B51" s="3">
         <v>456</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D51" s="3">
         <v>2012</v>
       </c>
       <c r="E51" s="1">
-        <v>99436.424098368385</v>
+        <v>99436.42409836838</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>21</v>
+      <c r="A52" s="4">
+        <v>2032</v>
       </c>
       <c r="B52" s="3">
         <v>123</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D52" s="3">
         <v>2013</v>
       </c>
       <c r="E52" s="1">
-        <v>88957.415557573913</v>
+        <v>88957.41555757391</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>112</v>
+      <c r="A53" s="4">
+        <v>2203</v>
       </c>
       <c r="B53" s="3">
         <v>123</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D53" s="3">
@@ -2187,47 +2190,47 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>109</v>
+      <c r="A54" s="4">
+        <v>2198</v>
       </c>
       <c r="B54" s="3">
         <v>456</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D54" s="3">
         <v>2012</v>
       </c>
       <c r="E54" s="1">
-        <v>70963.433089109545</v>
+        <v>70963.43308910955</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>63</v>
+      <c r="A55" s="4">
+        <v>2112</v>
       </c>
       <c r="B55" s="3">
         <v>456</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D55" s="3">
         <v>2013</v>
       </c>
       <c r="E55" s="1">
-        <v>45570.896382961313</v>
+        <v>45570.89638296131</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>119</v>
+      <c r="A56" s="4">
+        <v>2052</v>
       </c>
       <c r="B56" s="3">
         <v>456</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D56" s="3">
@@ -2238,13 +2241,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>78</v>
+      <c r="A57" s="4">
+        <v>2133</v>
       </c>
       <c r="B57" s="3">
         <v>456</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D57" s="3">
@@ -2255,30 +2258,30 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>97</v>
+      <c r="A58" s="4">
+        <v>2164</v>
       </c>
       <c r="B58" s="3">
         <v>456</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D58" s="3">
         <v>2013</v>
       </c>
       <c r="E58" s="1">
-        <v>62744.464274710153</v>
+        <v>62744.46427471015</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>51</v>
+      <c r="A59" s="4">
+        <v>2087</v>
       </c>
       <c r="B59" s="3">
         <v>789</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D59" s="3">
@@ -2289,13 +2292,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>41</v>
+      <c r="A60" s="4">
+        <v>2065</v>
       </c>
       <c r="B60" s="3">
         <v>456</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D60" s="3">
@@ -2306,30 +2309,30 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>2</v>
+      <c r="A61" s="4">
+        <v>2008</v>
       </c>
       <c r="B61" s="3">
         <v>456</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D61" s="3">
         <v>2013</v>
       </c>
       <c r="E61" s="1">
-        <v>89093.232630376689</v>
+        <v>89093.23263037669</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>82</v>
+      <c r="A62" s="4">
+        <v>2137</v>
       </c>
       <c r="B62" s="3">
         <v>456</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D62" s="3">
@@ -2340,47 +2343,47 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>95</v>
+      <c r="A63" s="4">
+        <v>2162</v>
       </c>
       <c r="B63" s="3">
         <v>456</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D63" s="3">
         <v>2012</v>
       </c>
       <c r="E63" s="1">
-        <v>8396.1654014376491</v>
+        <v>8396.165401437649</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>7</v>
+      <c r="A64" s="4">
+        <v>2016</v>
       </c>
       <c r="B64" s="3">
         <v>789</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D64" s="3">
         <v>2013</v>
       </c>
       <c r="E64" s="1">
-        <v>64710.891303897501</v>
+        <v>64710.8913038975</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>59</v>
+      <c r="A65" s="4">
+        <v>2099</v>
       </c>
       <c r="B65" s="3">
         <v>789</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D65" s="3">
@@ -2391,13 +2394,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>26</v>
+      <c r="A66" s="4">
+        <v>2040</v>
       </c>
       <c r="B66" s="3">
         <v>456</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D66" s="3">
@@ -2408,13 +2411,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>22</v>
+      <c r="A67" s="4">
+        <v>2034</v>
       </c>
       <c r="B67" s="3">
         <v>789</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D67" s="3">
@@ -2425,13 +2428,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>30</v>
+      <c r="A68" s="4">
+        <v>2044</v>
       </c>
       <c r="B68" s="3">
         <v>789</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D68" s="3">
@@ -2442,13 +2445,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>101</v>
+      <c r="A69" s="4">
+        <v>2190</v>
       </c>
       <c r="B69" s="3">
         <v>789</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D69" s="3">
@@ -2459,30 +2462,30 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>114</v>
+      <c r="A70" s="4">
+        <v>2205</v>
       </c>
       <c r="B70" s="3">
         <v>123</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D70" s="3">
         <v>2013</v>
       </c>
       <c r="E70" s="1">
-        <v>69530.674982247772</v>
+        <v>69530.67498224777</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>117</v>
+      <c r="A71" s="4">
+        <v>2006</v>
       </c>
       <c r="B71" s="3">
         <v>123</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D71" s="3">
@@ -2493,81 +2496,81 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>101</v>
+      <c r="A72" s="4">
+        <v>2190</v>
       </c>
       <c r="B72" s="3">
         <v>456</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D72" s="3">
         <v>2012</v>
       </c>
       <c r="E72" s="1">
-        <v>80225.251555580297</v>
+        <v>80225.2515555803</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>77</v>
+      <c r="A73" s="4">
+        <v>2132</v>
       </c>
       <c r="B73" s="3">
         <v>789</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D73" s="3">
         <v>2013</v>
       </c>
       <c r="E73" s="1">
-        <v>33048.102091696361</v>
+        <v>33048.10209169636</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>89</v>
+      <c r="A74" s="4">
+        <v>2147</v>
       </c>
       <c r="B74" s="3">
         <v>123</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D74" s="3">
         <v>2011</v>
       </c>
       <c r="E74" s="1">
-        <v>36420.784858795021</v>
+        <v>36420.78485879502</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>117</v>
+      <c r="A75" s="4">
+        <v>2006</v>
       </c>
       <c r="B75" s="3">
         <v>789</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D75" s="3">
         <v>2012</v>
       </c>
       <c r="E75" s="1">
-        <v>73725.466859741602</v>
+        <v>73725.4668597416</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>38</v>
+      <c r="A76" s="4">
+        <v>2062</v>
       </c>
       <c r="B76" s="3">
         <v>456</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D76" s="3">
@@ -2578,47 +2581,47 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>79</v>
+      <c r="A77" s="4">
+        <v>2134</v>
       </c>
       <c r="B77" s="3">
         <v>123</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D77" s="3">
         <v>2011</v>
       </c>
       <c r="E77" s="1">
-        <v>33404.176079906203</v>
+        <v>33404.1760799062</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>61</v>
+      <c r="A78" s="4">
+        <v>2110</v>
       </c>
       <c r="B78" s="3">
         <v>789</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D78" s="3">
         <v>2012</v>
       </c>
       <c r="E78" s="1">
-        <v>60876.160544879524</v>
+        <v>60876.16054487952</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>98</v>
+      <c r="A79" s="4">
+        <v>2165</v>
       </c>
       <c r="B79" s="3">
         <v>789</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D79" s="3">
@@ -2629,81 +2632,81 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>3</v>
+      <c r="A80" s="4">
+        <v>2009</v>
       </c>
       <c r="B80" s="3">
         <v>123</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D80" s="3">
         <v>2011</v>
       </c>
       <c r="E80" s="1">
-        <v>22852.592831238118</v>
+        <v>22852.59283123812</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>106</v>
+      <c r="A81" s="4">
+        <v>2195</v>
       </c>
       <c r="B81" s="3">
         <v>789</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D81" s="3">
         <v>2012</v>
       </c>
       <c r="E81" s="1">
-        <v>5535.1207927691439</v>
+        <v>5535.120792769144</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>18</v>
+      <c r="A82" s="4">
+        <v>2029</v>
       </c>
       <c r="B82" s="3">
         <v>123</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D82" s="3">
         <v>2013</v>
       </c>
       <c r="E82" s="1">
-        <v>42456.158714009929</v>
+        <v>42456.15871400993</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>110</v>
+      <c r="A83" s="4">
+        <v>2199</v>
       </c>
       <c r="B83" s="3">
         <v>123</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D83" s="3">
         <v>2011</v>
       </c>
       <c r="E83" s="1">
-        <v>91203.868179025143</v>
+        <v>91203.86817902514</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>44</v>
+      <c r="A84" s="4">
+        <v>2068</v>
       </c>
       <c r="B84" s="3">
         <v>123</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D84" s="3">
@@ -2714,30 +2717,30 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>3</v>
+      <c r="A85" s="4">
+        <v>2009</v>
       </c>
       <c r="B85" s="3">
         <v>456</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D85" s="3">
         <v>2013</v>
       </c>
       <c r="E85" s="1">
-        <v>85746.836965600538</v>
+        <v>85746.83696560054</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>29</v>
+      <c r="A86" s="4">
+        <v>2043</v>
       </c>
       <c r="B86" s="3">
         <v>456</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D86" s="3">
@@ -2748,81 +2751,81 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>32</v>
+      <c r="A87" s="4">
+        <v>2046</v>
       </c>
       <c r="B87" s="3">
         <v>456</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D87" s="3">
         <v>2012</v>
       </c>
       <c r="E87" s="1">
-        <v>6258.7259979762221</v>
+        <v>6258.725997976222</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>116</v>
+      <c r="A88" s="4">
+        <v>2050</v>
       </c>
       <c r="B88" s="3">
         <v>456</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D88" s="3">
         <v>2013</v>
       </c>
       <c r="E88" s="1">
-        <v>80519.245962771805</v>
+        <v>80519.2459627718</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>33</v>
+      <c r="A89" s="4">
+        <v>2047</v>
       </c>
       <c r="B89" s="3">
         <v>789</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D89" s="3">
         <v>2011</v>
       </c>
       <c r="E89" s="1">
-        <v>79289.636132605461</v>
+        <v>79289.63613260546</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>64</v>
+      <c r="A90" s="4">
+        <v>2114</v>
       </c>
       <c r="B90" s="3">
         <v>123</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D90" s="3">
         <v>2012</v>
       </c>
       <c r="E90" s="1">
-        <v>69906.093654739467</v>
+        <v>69906.09365473947</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>27</v>
+      <c r="A91" s="4">
+        <v>2041</v>
       </c>
       <c r="B91" s="3">
         <v>789</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D91" s="3">
@@ -2833,47 +2836,47 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>12</v>
+      <c r="A92" s="4">
+        <v>2023</v>
       </c>
       <c r="B92" s="3">
         <v>456</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D92" s="3">
         <v>2011</v>
       </c>
       <c r="E92" s="1">
-        <v>77797.631978400605</v>
+        <v>77797.6319784006</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>56</v>
+      <c r="A93" s="4">
+        <v>2094</v>
       </c>
       <c r="B93" s="3">
         <v>456</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D93" s="3">
         <v>2012</v>
       </c>
       <c r="E93" s="1">
-        <v>42384.026018605029</v>
+        <v>42384.02601860503</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>11</v>
+      <c r="A94" s="4">
+        <v>2022</v>
       </c>
       <c r="B94" s="3">
         <v>123</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D94" s="3">
@@ -2884,13 +2887,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>15</v>
+      <c r="A95" s="4">
+        <v>2026</v>
       </c>
       <c r="B95" s="3">
         <v>456</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D95" s="3">
@@ -2901,13 +2904,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>1</v>
+      <c r="A96" s="4">
+        <v>2007</v>
       </c>
       <c r="B96" s="3">
         <v>123</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D96" s="3">
@@ -2918,13 +2921,13 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>40</v>
+      <c r="A97" s="4">
+        <v>2064</v>
       </c>
       <c r="B97" s="3">
         <v>456</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D97" s="3">
@@ -2935,47 +2938,47 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>12</v>
+      <c r="A98" s="4">
+        <v>2023</v>
       </c>
       <c r="B98" s="3">
         <v>123</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D98" s="3">
         <v>2011</v>
       </c>
       <c r="E98" s="1">
-        <v>12962.727566952781</v>
+        <v>12962.72756695278</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>72</v>
+      <c r="A99" s="4">
+        <v>2125</v>
       </c>
       <c r="B99" s="3">
         <v>789</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D99" s="3">
         <v>2012</v>
       </c>
       <c r="E99" s="1">
-        <v>79116.223238541745</v>
+        <v>79116.22323854174</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>46</v>
+      <c r="A100" s="4">
+        <v>2070</v>
       </c>
       <c r="B100" s="3">
         <v>123</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D100" s="3">
@@ -2986,13 +2989,13 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>54</v>
+      <c r="A101" s="4">
+        <v>2092</v>
       </c>
       <c r="B101" s="3">
         <v>456</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D101" s="3">
@@ -3003,81 +3006,81 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>26</v>
+      <c r="A102" s="4">
+        <v>2040</v>
       </c>
       <c r="B102" s="3">
         <v>789</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="1">
-        <v>37596.895379031826</v>
+        <v>37596.89537903183</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>58</v>
+      <c r="A103" s="4">
+        <v>2096</v>
       </c>
       <c r="B103" s="3">
         <v>123</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D103" s="3">
         <v>2013</v>
       </c>
       <c r="E103" s="1">
-        <v>59561.966968642577</v>
+        <v>59561.96696864258</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>127</v>
+      <c r="A104" s="4">
+        <v>2123</v>
       </c>
       <c r="B104" s="3">
         <v>456</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D104" s="3">
         <v>2011</v>
       </c>
       <c r="E104" s="1">
-        <v>59035.398543713069</v>
+        <v>59035.39854371307</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>111</v>
+      <c r="A105" s="4">
+        <v>2200</v>
       </c>
       <c r="B105" s="3">
         <v>456</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D105" s="3">
         <v>2012</v>
       </c>
       <c r="E105" s="1">
-        <v>36867.580546477097</v>
+        <v>36867.5805464771</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>59</v>
+      <c r="A106" s="4">
+        <v>2099</v>
       </c>
       <c r="B106" s="3">
         <v>456</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D106" s="3">
@@ -3088,30 +3091,30 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>99</v>
+      <c r="A107" s="4">
+        <v>2166</v>
       </c>
       <c r="B107" s="3">
         <v>456</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D107" s="3">
         <v>2011</v>
       </c>
       <c r="E107" s="1">
-        <v>97072.381715961237</v>
+        <v>97072.38171596124</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>93</v>
+      <c r="A108" s="4">
+        <v>2160</v>
       </c>
       <c r="B108" s="3">
         <v>123</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D108" s="3">
@@ -3122,13 +3125,13 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>34</v>
+      <c r="A109" s="4">
+        <v>2048</v>
       </c>
       <c r="B109" s="3">
         <v>456</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D109" s="3">
@@ -3139,47 +3142,47 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>19</v>
+      <c r="A110" s="4">
+        <v>2030</v>
       </c>
       <c r="B110" s="3">
         <v>123</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D110" s="3">
         <v>2011</v>
       </c>
       <c r="E110" s="1">
-        <v>19846.883991005769</v>
+        <v>19846.88399100577</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>55</v>
+      <c r="A111" s="4">
+        <v>2093</v>
       </c>
       <c r="B111" s="3">
         <v>789</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D111" s="3">
         <v>2012</v>
       </c>
       <c r="E111" s="1">
-        <v>33781.367374536909</v>
+        <v>33781.36737453691</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>73</v>
+      <c r="A112" s="4">
+        <v>2127</v>
       </c>
       <c r="B112" s="3">
         <v>456</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D112" s="3">
@@ -3190,30 +3193,30 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>93</v>
+      <c r="A113" s="4">
+        <v>2160</v>
       </c>
       <c r="B113" s="3">
         <v>456</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D113" s="3">
         <v>2011</v>
       </c>
       <c r="E113" s="1">
-        <v>68070.838991547978</v>
+        <v>68070.83899154798</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>69</v>
+      <c r="A114" s="4">
+        <v>2119</v>
       </c>
       <c r="B114" s="3">
         <v>456</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D114" s="3">
@@ -3224,132 +3227,132 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>120</v>
+      <c r="A115" s="4">
+        <v>2088</v>
       </c>
       <c r="B115" s="3">
         <v>456</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D115" s="3">
         <v>2013</v>
       </c>
       <c r="E115" s="1">
-        <v>64900.638948952881</v>
+        <v>64900.63894895288</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>18</v>
+      <c r="A116" s="4">
+        <v>2029</v>
       </c>
       <c r="B116" s="3">
         <v>789</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D116" s="3">
         <v>2011</v>
       </c>
       <c r="E116" s="1">
-        <v>47447.736598125353</v>
+        <v>47447.73659812535</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>24</v>
+      <c r="A117" s="4">
+        <v>2038</v>
       </c>
       <c r="B117" s="3">
         <v>456</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D117" s="3">
         <v>2012</v>
       </c>
       <c r="E117" s="1">
-        <v>16708.103196930089</v>
+        <v>16708.10319693009</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>32</v>
+      <c r="A118" s="4">
+        <v>2046</v>
       </c>
       <c r="B118" s="3">
         <v>789</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D118" s="3">
         <v>2013</v>
       </c>
       <c r="E118" s="1">
-        <v>63444.124316503337</v>
+        <v>63444.12431650334</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>46</v>
+      <c r="A119" s="4">
+        <v>2070</v>
       </c>
       <c r="B119" s="3">
         <v>789</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D119" s="3">
         <v>2011</v>
       </c>
       <c r="E119" s="1">
-        <v>62105.740291232483</v>
+        <v>62105.74029123248</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>52</v>
+      <c r="A120" s="4">
+        <v>2089</v>
       </c>
       <c r="B120" s="3">
         <v>123</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D120" s="3">
         <v>2012</v>
       </c>
       <c r="E120" s="1">
-        <v>9348.4056384221312</v>
+        <v>9348.405638422131</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>125</v>
+      <c r="A121" s="4">
+        <v>2139</v>
       </c>
       <c r="B121" s="3">
         <v>123</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D121" s="3">
         <v>2013</v>
       </c>
       <c r="E121" s="1">
-        <v>2676.2352124329868</v>
+        <v>2676.235212432987</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>67</v>
+      <c r="A122" s="4">
+        <v>2117</v>
       </c>
       <c r="B122" s="3">
         <v>789</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D122" s="3">
@@ -3360,13 +3363,13 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>123</v>
+      <c r="A123" s="4">
+        <v>2109</v>
       </c>
       <c r="B123" s="3">
         <v>123</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D123" s="3">
@@ -3377,30 +3380,30 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>83</v>
+      <c r="A124" s="4">
+        <v>2141</v>
       </c>
       <c r="B124" s="3">
         <v>456</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D124" s="3">
         <v>2013</v>
       </c>
       <c r="E124" s="1">
-        <v>28464.940899010671</v>
+        <v>28464.94089901067</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>65</v>
+      <c r="A125" s="4">
+        <v>2115</v>
       </c>
       <c r="B125" s="3">
         <v>789</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D125" s="3">
@@ -3411,47 +3414,47 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>107</v>
+      <c r="A126" s="4">
+        <v>2196</v>
       </c>
       <c r="B126" s="3">
         <v>123</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D126" s="3">
         <v>2012</v>
       </c>
       <c r="E126" s="1">
-        <v>66107.220857533292</v>
+        <v>66107.22085753329</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>55</v>
+      <c r="A127" s="4">
+        <v>2093</v>
       </c>
       <c r="B127" s="3">
         <v>123</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D127" s="3">
         <v>2013</v>
       </c>
       <c r="E127" s="1">
-        <v>69062.212175783308</v>
+        <v>69062.21217578331</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>129</v>
+      <c r="A128" s="4">
+        <v>2129</v>
       </c>
       <c r="B128" s="3">
         <v>789</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D128" s="3">
@@ -3462,13 +3465,13 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>44</v>
+      <c r="A129" s="4">
+        <v>2068</v>
       </c>
       <c r="B129" s="3">
         <v>789</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D129" s="3">
@@ -3479,64 +3482,64 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>81</v>
+      <c r="A130" s="4">
+        <v>2136</v>
       </c>
       <c r="B130" s="3">
         <v>456</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D130" s="3">
         <v>2013</v>
       </c>
       <c r="E130" s="1">
-        <v>8606.7696143704688</v>
+        <v>8606.769614370469</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>122</v>
+      <c r="A131" s="4">
+        <v>2113</v>
       </c>
       <c r="B131" s="3">
         <v>123</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D131" s="3">
         <v>2011</v>
       </c>
       <c r="E131" s="1">
-        <v>31429.999168744449</v>
+        <v>31429.99916874445</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>106</v>
+      <c r="A132" s="4">
+        <v>2195</v>
       </c>
       <c r="B132" s="3">
         <v>123</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D132" s="3">
         <v>2012</v>
       </c>
       <c r="E132" s="1">
-        <v>74718.738347519771</v>
+        <v>74718.73834751977</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>79</v>
+      <c r="A133" s="4">
+        <v>2134</v>
       </c>
       <c r="B133" s="3">
         <v>456</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D133" s="3">
@@ -3547,13 +3550,13 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>105</v>
+      <c r="A134" s="4">
+        <v>2194</v>
       </c>
       <c r="B134" s="3">
         <v>789</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D134" s="3">
@@ -3564,47 +3567,47 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>8</v>
+      <c r="A135" s="4">
+        <v>2017</v>
       </c>
       <c r="B135" s="3">
         <v>456</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D135" s="3">
         <v>2012</v>
       </c>
       <c r="E135" s="1">
-        <v>15791.913741150011</v>
+        <v>15791.91374115001</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>71</v>
+      <c r="A136" s="4">
+        <v>2122</v>
       </c>
       <c r="B136" s="3">
         <v>789</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D136" s="3">
         <v>2013</v>
       </c>
       <c r="E136" s="1">
-        <v>62984.253562071412</v>
+        <v>62984.25356207141</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>42</v>
+      <c r="A137" s="4">
+        <v>2066</v>
       </c>
       <c r="B137" s="3">
         <v>456</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D137" s="3">
@@ -3615,30 +3618,30 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>112</v>
+      <c r="A138" s="4">
+        <v>2203</v>
       </c>
       <c r="B138" s="3">
         <v>789</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D138" s="3">
         <v>2012</v>
       </c>
       <c r="E138" s="1">
-        <v>68656.959311105093</v>
+        <v>68656.95931110509</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>126</v>
+      <c r="A139" s="4">
+        <v>2150</v>
       </c>
       <c r="B139" s="3">
         <v>789</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D139" s="3">
@@ -3649,81 +3652,81 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>70</v>
+      <c r="A140" s="4">
+        <v>2121</v>
       </c>
       <c r="B140" s="3">
         <v>789</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D140" s="3">
         <v>2011</v>
       </c>
       <c r="E140" s="1">
-        <v>5490.6963603684189</v>
+        <v>5490.696360368419</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>84</v>
+      <c r="A141" s="4">
+        <v>2142</v>
       </c>
       <c r="B141" s="3">
         <v>123</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D141" s="3">
         <v>2012</v>
       </c>
       <c r="E141" s="1">
-        <v>78419.449947613612</v>
+        <v>78419.44994761361</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>67</v>
+      <c r="A142" s="4">
+        <v>2117</v>
       </c>
       <c r="B142" s="3">
         <v>456</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D142" s="3">
         <v>2013</v>
       </c>
       <c r="E142" s="1">
-        <v>4380.4628196412623</v>
+        <v>4380.462819641262</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>58</v>
+      <c r="A143" s="4">
+        <v>2096</v>
       </c>
       <c r="B143" s="3">
         <v>456</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D143" s="3">
         <v>2011</v>
       </c>
       <c r="E143" s="1">
-        <v>70422.384970006373</v>
+        <v>70422.38497000637</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>95</v>
+      <c r="A144" s="4">
+        <v>2162</v>
       </c>
       <c r="B144" s="3">
         <v>789</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D144" s="3">
@@ -3734,13 +3737,13 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>27</v>
+      <c r="A145" s="4">
+        <v>2041</v>
       </c>
       <c r="B145" s="3">
         <v>456</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D145" s="3">
@@ -3751,13 +3754,13 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>73</v>
+      <c r="A146" s="4">
+        <v>2127</v>
       </c>
       <c r="B146" s="3">
         <v>123</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D146" s="3">
@@ -3768,81 +3771,81 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>74</v>
+      <c r="A147" s="4">
+        <v>2128</v>
       </c>
       <c r="B147" s="3">
         <v>789</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D147" s="3">
         <v>2012</v>
       </c>
       <c r="E147" s="1">
-        <v>95799.189866278684</v>
+        <v>95799.18986627868</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>22</v>
+      <c r="A148" s="4">
+        <v>2034</v>
       </c>
       <c r="B148" s="3">
         <v>456</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D148" s="3">
         <v>2013</v>
       </c>
       <c r="E148" s="1">
-        <v>36756.009738375258</v>
+        <v>36756.00973837526</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>99</v>
+      <c r="A149" s="4">
+        <v>2166</v>
       </c>
       <c r="B149" s="3">
         <v>789</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D149" s="3">
         <v>2011</v>
       </c>
       <c r="E149" s="1">
-        <v>47446.990901387173</v>
+        <v>47446.99090138717</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>78</v>
+      <c r="A150" s="4">
+        <v>2133</v>
       </c>
       <c r="B150" s="3">
         <v>123</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D150" s="3">
         <v>2012</v>
       </c>
       <c r="E150" s="1">
-        <v>41256.421627935422</v>
+        <v>41256.42162793542</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>100</v>
+      <c r="A151" s="4">
+        <v>2170</v>
       </c>
       <c r="B151" s="3">
         <v>789</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D151" s="3">
@@ -3853,47 +3856,47 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>80</v>
+      <c r="A152" s="4">
+        <v>2135</v>
       </c>
       <c r="B152" s="3">
         <v>456</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D152" s="3">
         <v>2011</v>
       </c>
       <c r="E152" s="1">
-        <v>94181.764912922357</v>
+        <v>94181.76491292236</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>66</v>
+      <c r="A153" s="4">
+        <v>2116</v>
       </c>
       <c r="B153" s="3">
         <v>123</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D153" s="3">
         <v>2012</v>
       </c>
       <c r="E153" s="1">
-        <v>49807.617838596132</v>
+        <v>49807.61783859613</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>86</v>
+      <c r="A154" s="4">
+        <v>2144</v>
       </c>
       <c r="B154" s="3">
         <v>123</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D154" s="3">
@@ -3904,30 +3907,30 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>86</v>
+      <c r="A155" s="4">
+        <v>2144</v>
       </c>
       <c r="B155" s="3">
         <v>456</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D155" s="3">
         <v>2011</v>
       </c>
       <c r="E155" s="1">
-        <v>54905.611361300478</v>
+        <v>54905.61136130048</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>78</v>
+      <c r="A156" s="4">
+        <v>2133</v>
       </c>
       <c r="B156" s="3">
         <v>789</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D156" s="3">
@@ -3938,47 +3941,47 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>22</v>
+      <c r="A157" s="4">
+        <v>2034</v>
       </c>
       <c r="B157" s="3">
         <v>123</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D157" s="3">
         <v>2013</v>
       </c>
       <c r="E157" s="1">
-        <v>46114.788084427593</v>
+        <v>46114.78808442759</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>63</v>
+      <c r="A158" s="4">
+        <v>2112</v>
       </c>
       <c r="B158" s="3">
         <v>123</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D158" s="3">
         <v>2011</v>
       </c>
       <c r="E158" s="1">
-        <v>81700.654001322968</v>
+        <v>81700.65400132297</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>85</v>
+      <c r="A159" s="4">
+        <v>2143</v>
       </c>
       <c r="B159" s="3">
         <v>123</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D159" s="3">
@@ -3989,30 +3992,30 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>112</v>
+      <c r="A160" s="4">
+        <v>2203</v>
       </c>
       <c r="B160" s="3">
         <v>456</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D160" s="3">
         <v>2013</v>
       </c>
       <c r="E160" s="1">
-        <v>85515.935061852142</v>
+        <v>85515.93506185214</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>62</v>
+      <c r="A161" s="4">
+        <v>2111</v>
       </c>
       <c r="B161" s="3">
         <v>123</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D161" s="3">
@@ -4023,30 +4026,30 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>23</v>
+      <c r="A162" s="4">
+        <v>2037</v>
       </c>
       <c r="B162" s="3">
         <v>456</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D162" s="3">
         <v>2012</v>
       </c>
       <c r="E162" s="1">
-        <v>49010.423521894452</v>
+        <v>49010.42352189445</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>9</v>
+      <c r="A163" s="4">
+        <v>2018</v>
       </c>
       <c r="B163" s="3">
         <v>456</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D163" s="3">
@@ -4057,13 +4060,13 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>87</v>
+      <c r="A164" s="4">
+        <v>2145</v>
       </c>
       <c r="B164" s="3">
         <v>123</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D164" s="3">
@@ -4074,13 +4077,13 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>60</v>
+      <c r="A165" s="4">
+        <v>2100</v>
       </c>
       <c r="B165" s="3">
         <v>456</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D165" s="3">
@@ -4091,13 +4094,13 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>27</v>
+      <c r="A166" s="4">
+        <v>2041</v>
       </c>
       <c r="B166" s="3">
         <v>123</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D166" s="3">
@@ -4108,64 +4111,64 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>129</v>
+      <c r="A167" s="4">
+        <v>2129</v>
       </c>
       <c r="B167" s="3">
         <v>456</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D167" s="3">
         <v>2011</v>
       </c>
       <c r="E167" s="1">
-        <v>48260.123161592761</v>
+        <v>48260.12316159276</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>108</v>
+      <c r="A168" s="4">
+        <v>2197</v>
       </c>
       <c r="B168" s="3">
         <v>789</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D168" s="3">
         <v>2012</v>
       </c>
       <c r="E168" s="1">
-        <v>95119.044085736663</v>
+        <v>95119.04408573666</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>36</v>
+      <c r="A169" s="4">
+        <v>2060</v>
       </c>
       <c r="B169" s="3">
         <v>789</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D169" s="3">
         <v>2013</v>
       </c>
       <c r="E169" s="1">
-        <v>53020.162934792002</v>
+        <v>53020.162934792</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>109</v>
+      <c r="A170" s="4">
+        <v>2198</v>
       </c>
       <c r="B170" s="3">
         <v>789</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D170" s="3">
@@ -4176,30 +4179,30 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>102</v>
+      <c r="A171" s="4">
+        <v>2191</v>
       </c>
       <c r="B171" s="3">
         <v>789</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D171" s="3">
         <v>2012</v>
       </c>
       <c r="E171" s="1">
-        <v>59382.061549838618</v>
+        <v>59382.06154983862</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>33</v>
+      <c r="A172" s="4">
+        <v>2047</v>
       </c>
       <c r="B172" s="3">
         <v>123</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D172" s="3">
@@ -4210,64 +4213,64 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>4</v>
+      <c r="A173" s="4">
+        <v>2010</v>
       </c>
       <c r="B173" s="3">
         <v>123</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D173" s="3">
         <v>2011</v>
       </c>
       <c r="E173" s="1">
-        <v>40301.191560298786</v>
+        <v>40301.19156029879</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>88</v>
+      <c r="A174" s="4">
+        <v>2146</v>
       </c>
       <c r="B174" s="3">
         <v>789</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D174" s="3">
         <v>2012</v>
       </c>
       <c r="E174" s="1">
-        <v>43403.377906255249</v>
+        <v>43403.37790625525</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>85</v>
+      <c r="A175" s="4">
+        <v>2143</v>
       </c>
       <c r="B175" s="3">
         <v>456</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D175" s="3">
         <v>2013</v>
       </c>
       <c r="E175" s="1">
-        <v>74226.012466441025</v>
+        <v>74226.01246644103</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>115</v>
+      <c r="A176" s="4">
+        <v>2206</v>
       </c>
       <c r="B176" s="3">
         <v>789</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D176" s="3">
@@ -4278,47 +4281,47 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>47</v>
+      <c r="A177" s="4">
+        <v>2071</v>
       </c>
       <c r="B177" s="3">
         <v>123</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D177" s="3">
         <v>2012</v>
       </c>
       <c r="E177" s="1">
-        <v>5591.7222522588127</v>
+        <v>5591.722252258813</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>57</v>
+      <c r="A178" s="4">
+        <v>2095</v>
       </c>
       <c r="B178" s="3">
         <v>123</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D178" s="3">
         <v>2013</v>
       </c>
       <c r="E178" s="1">
-        <v>55937.300077083441</v>
+        <v>55937.30007708344</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>13</v>
+      <c r="A179" s="4">
+        <v>2024</v>
       </c>
       <c r="B179" s="3">
         <v>123</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D179" s="3">
@@ -4329,30 +4332,30 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>88</v>
+      <c r="A180" s="4">
+        <v>2146</v>
       </c>
       <c r="B180" s="3">
         <v>123</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D180" s="3">
         <v>2012</v>
       </c>
       <c r="E180" s="1">
-        <v>98510.590242804828</v>
+        <v>98510.59024280483</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>61</v>
+      <c r="A181" s="4">
+        <v>2110</v>
       </c>
       <c r="B181" s="3">
         <v>123</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D181" s="3">
@@ -4363,30 +4366,30 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
-        <v>30</v>
+      <c r="A182" s="4">
+        <v>2044</v>
       </c>
       <c r="B182" s="3">
         <v>456</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D182" s="3">
         <v>2011</v>
       </c>
       <c r="E182" s="1">
-        <v>59482.586260971308</v>
+        <v>59482.58626097131</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
-        <v>98</v>
+      <c r="A183" s="4">
+        <v>2165</v>
       </c>
       <c r="B183" s="3">
         <v>456</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D183" s="3">
@@ -4397,64 +4400,64 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>25</v>
+      <c r="A184" s="4">
+        <v>2039</v>
       </c>
       <c r="B184" s="3">
         <v>789</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D184" s="3">
         <v>2013</v>
       </c>
       <c r="E184" s="1">
-        <v>71497.721743438393</v>
+        <v>71497.7217434384</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>128</v>
+      <c r="A185" s="4">
+        <v>2140</v>
       </c>
       <c r="B185" s="3">
         <v>789</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D185" s="3">
         <v>2011</v>
       </c>
       <c r="E185" s="1">
-        <v>32218.253551633381</v>
+        <v>32218.25355163338</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
-        <v>71</v>
+      <c r="A186" s="4">
+        <v>2122</v>
       </c>
       <c r="B186" s="3">
         <v>456</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D186" s="3">
         <v>2012</v>
       </c>
       <c r="E186" s="1">
-        <v>81654.545161522634</v>
+        <v>81654.54516152263</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>91</v>
+      <c r="A187" s="4">
+        <v>2152</v>
       </c>
       <c r="B187" s="3">
         <v>123</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D187" s="3">
@@ -4465,166 +4468,166 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>58</v>
+      <c r="A188" s="4">
+        <v>2096</v>
       </c>
       <c r="B188" s="3">
         <v>789</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D188" s="3">
         <v>2011</v>
       </c>
       <c r="E188" s="1">
-        <v>9781.5687305079937</v>
+        <v>9781.568730507994</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
-        <v>20</v>
+      <c r="A189" s="4">
+        <v>2031</v>
       </c>
       <c r="B189" s="3">
         <v>789</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D189" s="3">
         <v>2012</v>
       </c>
       <c r="E189" s="1">
-        <v>96342.987533182037</v>
+        <v>96342.98753318204</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>5</v>
+      <c r="A190" s="4">
+        <v>2011</v>
       </c>
       <c r="B190" s="3">
         <v>456</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D190" s="3">
         <v>2013</v>
       </c>
       <c r="E190" s="1">
-        <v>73529.080316837964</v>
+        <v>73529.08031683796</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>56</v>
+      <c r="A191" s="4">
+        <v>2094</v>
       </c>
       <c r="B191" s="3">
         <v>123</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D191" s="3">
         <v>2011</v>
       </c>
       <c r="E191" s="1">
-        <v>90268.046465484018</v>
+        <v>90268.04646548402</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>62</v>
+      <c r="A192" s="4">
+        <v>2111</v>
       </c>
       <c r="B192" s="3">
         <v>456</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D192" s="3">
         <v>2012</v>
       </c>
       <c r="E192" s="1">
-        <v>51309.631652966127</v>
+        <v>51309.63165296613</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
-        <v>127</v>
+      <c r="A193" s="4">
+        <v>2123</v>
       </c>
       <c r="B193" s="3">
         <v>123</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D193" s="3">
         <v>2013</v>
       </c>
       <c r="E193" s="1">
-        <v>45922.508674015808</v>
+        <v>45922.50867401581</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>6</v>
+      <c r="A194" s="4">
+        <v>2015</v>
       </c>
       <c r="B194" s="3">
         <v>123</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D194" s="3">
         <v>2011</v>
       </c>
       <c r="E194" s="1">
-        <v>19273.593767348018</v>
+        <v>19273.59376734802</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>110</v>
+      <c r="A195" s="4">
+        <v>2199</v>
       </c>
       <c r="B195" s="3">
         <v>456</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D195" s="3">
         <v>2012</v>
       </c>
       <c r="E195" s="1">
-        <v>89796.777850333383</v>
+        <v>89796.77785033338</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>14</v>
+      <c r="A196" s="4">
+        <v>2025</v>
       </c>
       <c r="B196" s="3">
         <v>123</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D196" s="3">
         <v>2013</v>
       </c>
       <c r="E196" s="1">
-        <v>52643.365635197857</v>
+        <v>52643.36563519786</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>17</v>
+      <c r="A197" s="4">
+        <v>2028</v>
       </c>
       <c r="B197" s="3">
         <v>123</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D197" s="3">
@@ -4635,30 +4638,30 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>14</v>
+      <c r="A198" s="4">
+        <v>2025</v>
       </c>
       <c r="B198" s="3">
         <v>456</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D198" s="3">
         <v>2012</v>
       </c>
       <c r="E198" s="1">
-        <v>82466.094135679712</v>
+        <v>82466.09413567971</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>108</v>
+      <c r="A199" s="4">
+        <v>2197</v>
       </c>
       <c r="B199" s="3">
         <v>456</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D199" s="3">
@@ -4669,13 +4672,13 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>90</v>
+      <c r="A200" s="4">
+        <v>2151</v>
       </c>
       <c r="B200" s="3">
         <v>789</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D200" s="3">
@@ -4686,30 +4689,30 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>1</v>
+      <c r="A201" s="4">
+        <v>2007</v>
       </c>
       <c r="B201" s="3">
         <v>789</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D201" s="3">
         <v>2012</v>
       </c>
       <c r="E201" s="1">
-        <v>18008.011875174368</v>
+        <v>18008.01187517437</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>6</v>
+      <c r="A202" s="4">
+        <v>2015</v>
       </c>
       <c r="B202" s="3">
         <v>789</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D202" s="3">
@@ -4720,132 +4723,132 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>13</v>
+      <c r="A203" s="4">
+        <v>2024</v>
       </c>
       <c r="B203" s="3">
         <v>789</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D203" s="3">
         <v>2011</v>
       </c>
       <c r="E203" s="1">
-        <v>69425.036339718266</v>
+        <v>69425.03633971827</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
-        <v>8</v>
+      <c r="A204" s="4">
+        <v>2017</v>
       </c>
       <c r="B204" s="3">
         <v>123</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D204" s="3">
         <v>2012</v>
       </c>
       <c r="E204" s="1">
-        <v>47308.508715500728</v>
+        <v>47308.50871550073</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
-        <v>116</v>
+      <c r="A205" s="4">
+        <v>2050</v>
       </c>
       <c r="B205" s="3">
         <v>789</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D205" s="3">
         <v>2013</v>
       </c>
       <c r="E205" s="1">
-        <v>54725.737529824677</v>
+        <v>54725.73752982468</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>93</v>
+      <c r="A206" s="4">
+        <v>2160</v>
       </c>
       <c r="B206" s="3">
         <v>789</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D206" s="3">
         <v>2011</v>
       </c>
       <c r="E206" s="1">
-        <v>35361.140883499509</v>
+        <v>35361.14088349951</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>19</v>
+      <c r="A207" s="4">
+        <v>2030</v>
       </c>
       <c r="B207" s="3">
         <v>456</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D207" s="3">
         <v>2012</v>
       </c>
       <c r="E207" s="1">
-        <v>87640.140863689026</v>
+        <v>87640.14086368903</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>92</v>
+      <c r="A208" s="4">
+        <v>2153</v>
       </c>
       <c r="B208" s="3">
         <v>123</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D208" s="3">
         <v>2013</v>
       </c>
       <c r="E208" s="1">
-        <v>95989.727586729554</v>
+        <v>95989.72758672955</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
-        <v>126</v>
+      <c r="A209" s="4">
+        <v>2150</v>
       </c>
       <c r="B209" s="3">
         <v>123</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D209" s="3">
         <v>2011</v>
       </c>
       <c r="E209" s="1">
-        <v>95859.976034006628</v>
+        <v>95859.97603400663</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
-        <v>90</v>
+      <c r="A210" s="4">
+        <v>2151</v>
       </c>
       <c r="B210" s="3">
         <v>123</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D210" s="3">
@@ -4856,13 +4859,13 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
-        <v>31</v>
+      <c r="A211" s="4">
+        <v>2045</v>
       </c>
       <c r="B211" s="3">
         <v>789</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D211" s="3">
@@ -4873,13 +4876,13 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>16</v>
+      <c r="A212" s="4">
+        <v>2027</v>
       </c>
       <c r="B212" s="3">
         <v>789</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D212" s="3">
@@ -4890,30 +4893,30 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>4</v>
+      <c r="A213" s="4">
+        <v>2010</v>
       </c>
       <c r="B213" s="3">
         <v>456</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D213" s="3">
         <v>2012</v>
       </c>
       <c r="E213" s="1">
-        <v>35901.224413753851</v>
+        <v>35901.22441375385</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>77</v>
+      <c r="A214" s="4">
+        <v>2132</v>
       </c>
       <c r="B214" s="3">
         <v>123</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D214" s="3">
@@ -4924,13 +4927,13 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
-        <v>119</v>
+      <c r="A215" s="4">
+        <v>2052</v>
       </c>
       <c r="B215" s="3">
         <v>123</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D215" s="3">
@@ -4941,13 +4944,13 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>120</v>
+      <c r="A216" s="4">
+        <v>2088</v>
       </c>
       <c r="B216" s="3">
         <v>789</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D216" s="3">
@@ -4958,13 +4961,13 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>57</v>
+      <c r="A217" s="4">
+        <v>2095</v>
       </c>
       <c r="B217" s="3">
         <v>456</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D217" s="3">
@@ -4975,13 +4978,13 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>7</v>
+      <c r="A218" s="4">
+        <v>2016</v>
       </c>
       <c r="B218" s="3">
         <v>123</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D218" s="3">
@@ -4992,98 +4995,98 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>47</v>
+      <c r="A219" s="4">
+        <v>2071</v>
       </c>
       <c r="B219" s="3">
         <v>456</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D219" s="3">
         <v>2012</v>
       </c>
       <c r="E219" s="1">
-        <v>68776.159613102893</v>
+        <v>68776.1596131029</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>124</v>
+      <c r="A220" s="4">
+        <v>2138</v>
       </c>
       <c r="B220" s="3">
         <v>789</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D220" s="3">
         <v>2013</v>
       </c>
       <c r="E220" s="1">
-        <v>33064.354271136333</v>
+        <v>33064.35427113633</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>35</v>
+      <c r="A221" s="4">
+        <v>2049</v>
       </c>
       <c r="B221" s="3">
         <v>123</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D221" s="3">
         <v>2011</v>
       </c>
       <c r="E221" s="1">
-        <v>89721.315160092869</v>
+        <v>89721.31516009287</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>53</v>
+      <c r="A222" s="4">
+        <v>2090</v>
       </c>
       <c r="B222" s="3">
         <v>789</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D222" s="3">
         <v>2012</v>
       </c>
       <c r="E222" s="1">
-        <v>89378.581318445547</v>
+        <v>89378.58131844555</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>10</v>
+      <c r="A223" s="4">
+        <v>2021</v>
       </c>
       <c r="B223" s="3">
         <v>456</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D223" s="3">
         <v>2013</v>
       </c>
       <c r="E223" s="1">
-        <v>64327.662066113568</v>
+        <v>64327.66206611357</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>25</v>
+      <c r="A224" s="4">
+        <v>2039</v>
       </c>
       <c r="B224" s="3">
         <v>123</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D224" s="3">
@@ -5094,98 +5097,98 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>20</v>
+      <c r="A225" s="4">
+        <v>2031</v>
       </c>
       <c r="B225" s="3">
         <v>456</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D225" s="3">
         <v>2012</v>
       </c>
       <c r="E225" s="1">
-        <v>67430.832880311136</v>
+        <v>67430.83288031114</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>7</v>
+      <c r="A226" s="4">
+        <v>2016</v>
       </c>
       <c r="B226" s="3">
         <v>456</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D226" s="3">
         <v>2013</v>
       </c>
       <c r="E226" s="1">
-        <v>46974.926222088121</v>
+        <v>46974.92622208812</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>18</v>
+      <c r="A227" s="4">
+        <v>2029</v>
       </c>
       <c r="B227" s="3">
         <v>456</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D227" s="3">
         <v>2011</v>
       </c>
       <c r="E227" s="1">
-        <v>92117.646851251659</v>
+        <v>92117.64685125166</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>26</v>
+      <c r="A228" s="4">
+        <v>2040</v>
       </c>
       <c r="B228" s="3">
         <v>123</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D228" s="3">
         <v>2012</v>
       </c>
       <c r="E228" s="1">
-        <v>91203.557636179452</v>
+        <v>91203.55763617945</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>37</v>
+      <c r="A229" s="4">
+        <v>2061</v>
       </c>
       <c r="B229" s="3">
         <v>456</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D229" s="3">
         <v>2013</v>
       </c>
       <c r="E229" s="1">
-        <v>85199.711576671485</v>
+        <v>85199.71157667149</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
-        <v>102</v>
+      <c r="A230" s="4">
+        <v>2191</v>
       </c>
       <c r="B230" s="3">
         <v>456</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D230" s="3">
@@ -5196,30 +5199,30 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
-        <v>119</v>
+      <c r="A231" s="4">
+        <v>2052</v>
       </c>
       <c r="B231" s="3">
         <v>789</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D231" s="3">
         <v>2012</v>
       </c>
       <c r="E231" s="1">
-        <v>52173.117724180898</v>
+        <v>52173.1177241809</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
-        <v>129</v>
+      <c r="A232" s="4">
+        <v>2129</v>
       </c>
       <c r="B232" s="3">
         <v>123</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D232" s="3">
@@ -5230,13 +5233,13 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
-        <v>91</v>
+      <c r="A233" s="4">
+        <v>2152</v>
       </c>
       <c r="B233" s="3">
         <v>789</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D233" s="3">
@@ -5247,115 +5250,115 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>94</v>
+      <c r="A234" s="4">
+        <v>2161</v>
       </c>
       <c r="B234" s="3">
         <v>789</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D234" s="3">
         <v>2012</v>
       </c>
       <c r="E234" s="1">
-        <v>87956.782832440105</v>
+        <v>87956.7828324401</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>53</v>
+      <c r="A235" s="4">
+        <v>2090</v>
       </c>
       <c r="B235" s="3">
         <v>123</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D235" s="3">
         <v>2013</v>
       </c>
       <c r="E235" s="1">
-        <v>41927.960606653403</v>
+        <v>41927.9606066534</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>92</v>
+      <c r="A236" s="4">
+        <v>2153</v>
       </c>
       <c r="B236" s="3">
         <v>789</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D236" s="3">
         <v>2011</v>
       </c>
       <c r="E236" s="1">
-        <v>92727.542743340673</v>
+        <v>92727.54274334067</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
-        <v>123</v>
+      <c r="A237" s="4">
+        <v>2109</v>
       </c>
       <c r="B237" s="3">
         <v>789</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D237" s="3">
         <v>2012</v>
       </c>
       <c r="E237" s="1">
-        <v>42204.823360368639</v>
+        <v>42204.82336036864</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
-        <v>9</v>
+      <c r="A238" s="4">
+        <v>2018</v>
       </c>
       <c r="B238" s="3">
         <v>123</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D238" s="3">
         <v>2013</v>
       </c>
       <c r="E238" s="1">
-        <v>36658.779599900437</v>
+        <v>36658.77959990044</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
-        <v>121</v>
+      <c r="A239" s="4">
+        <v>2091</v>
       </c>
       <c r="B239" s="3">
         <v>456</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D239" s="3">
         <v>2011</v>
       </c>
       <c r="E239" s="1">
-        <v>34478.740494404512</v>
+        <v>34478.74049440451</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
-        <v>110</v>
+      <c r="A240" s="4">
+        <v>2199</v>
       </c>
       <c r="B240" s="3">
         <v>789</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D240" s="3">
@@ -5366,47 +5369,47 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
-        <v>0</v>
+      <c r="A241" s="4">
+        <v>2000</v>
       </c>
       <c r="B241" s="3">
         <v>789</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D241" s="3">
         <v>2013</v>
       </c>
       <c r="E241" s="1">
-        <v>83705.822128551503</v>
+        <v>83705.8221285515</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>113</v>
+      <c r="A242" s="4">
+        <v>2204</v>
       </c>
       <c r="B242" s="3">
         <v>789</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D242" s="3">
         <v>2011</v>
       </c>
       <c r="E242" s="1">
-        <v>99743.831149156977</v>
+        <v>99743.83114915698</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
-        <v>29</v>
+      <c r="A243" s="4">
+        <v>2043</v>
       </c>
       <c r="B243" s="3">
         <v>123</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D243" s="3">
@@ -5417,47 +5420,47 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
-        <v>49</v>
+      <c r="A244" s="4">
+        <v>2073</v>
       </c>
       <c r="B244" s="3">
         <v>789</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D244" s="3">
         <v>2013</v>
       </c>
       <c r="E244" s="1">
-        <v>34375.956105907957</v>
+        <v>34375.95610590796</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
-        <v>70</v>
+      <c r="A245" s="4">
+        <v>2121</v>
       </c>
       <c r="B245" s="3">
         <v>123</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D245" s="3">
         <v>2011</v>
       </c>
       <c r="E245" s="1">
-        <v>54646.996186191318</v>
+        <v>54646.99618619132</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>17</v>
+      <c r="A246" s="4">
+        <v>2028</v>
       </c>
       <c r="B246" s="3">
         <v>456</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D246" s="3">
@@ -5468,30 +5471,30 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
-        <v>89</v>
+      <c r="A247" s="4">
+        <v>2147</v>
       </c>
       <c r="B247" s="3">
         <v>789</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D247" s="3">
         <v>2013</v>
       </c>
       <c r="E247" s="1">
-        <v>23527.973222897359</v>
+        <v>23527.97322289736</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>23</v>
+      <c r="A248" s="4">
+        <v>2037</v>
       </c>
       <c r="B248" s="3">
         <v>123</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D248" s="3">
@@ -5502,13 +5505,13 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>17</v>
+      <c r="A249" s="4">
+        <v>2028</v>
       </c>
       <c r="B249" s="3">
         <v>789</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D249" s="3">
@@ -5519,30 +5522,30 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>74</v>
+      <c r="A250" s="4">
+        <v>2128</v>
       </c>
       <c r="B250" s="3">
         <v>123</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D250" s="3">
         <v>2013</v>
       </c>
       <c r="E250" s="1">
-        <v>38554.160303193617</v>
+        <v>38554.16030319362</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
-        <v>39</v>
+      <c r="A251" s="4">
+        <v>2063</v>
       </c>
       <c r="B251" s="3">
         <v>789</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D251" s="3">
@@ -5553,13 +5556,13 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>65</v>
+      <c r="A252" s="4">
+        <v>2115</v>
       </c>
       <c r="B252" s="3">
         <v>123</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D252" s="3">
@@ -5570,98 +5573,98 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
-        <v>103</v>
+      <c r="A253" s="4">
+        <v>2192</v>
       </c>
       <c r="B253" s="3">
         <v>456</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D253" s="3">
         <v>2013</v>
       </c>
       <c r="E253" s="1">
-        <v>56303.463884178993</v>
+        <v>56303.46388417899</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
-        <v>34</v>
+      <c r="A254" s="4">
+        <v>2048</v>
       </c>
       <c r="B254" s="3">
         <v>789</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D254" s="3">
         <v>2011</v>
       </c>
       <c r="E254" s="1">
-        <v>99878.489208544328</v>
+        <v>99878.48920854433</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
-        <v>56</v>
+      <c r="A255" s="4">
+        <v>2094</v>
       </c>
       <c r="B255" s="3">
         <v>789</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D255" s="3">
         <v>2012</v>
       </c>
       <c r="E255" s="1">
-        <v>20724.015271837059</v>
+        <v>20724.01527183706</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
-        <v>68</v>
+      <c r="A256" s="4">
+        <v>2118</v>
       </c>
       <c r="B256" s="3">
         <v>789</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D256" s="3">
         <v>2013</v>
       </c>
       <c r="E256" s="1">
-        <v>42536.160419654232</v>
+        <v>42536.16041965423</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>99</v>
+      <c r="A257" s="4">
+        <v>2166</v>
       </c>
       <c r="B257" s="3">
         <v>123</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D257" s="3">
         <v>2011</v>
       </c>
       <c r="E257" s="1">
-        <v>81440.126698158667</v>
+        <v>81440.12669815867</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>86</v>
+      <c r="A258" s="4">
+        <v>2144</v>
       </c>
       <c r="B258" s="3">
         <v>789</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D258" s="3">
@@ -5672,13 +5675,13 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>96</v>
+      <c r="A259" s="4">
+        <v>2163</v>
       </c>
       <c r="B259" s="3">
         <v>789</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D259" s="3">
@@ -5689,81 +5692,81 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>106</v>
+      <c r="A260" s="4">
+        <v>2195</v>
       </c>
       <c r="B260" s="3">
         <v>456</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D260" s="3">
         <v>2011</v>
       </c>
       <c r="E260" s="1">
-        <v>22991.413647897509</v>
+        <v>22991.41364789751</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
-        <v>83</v>
+      <c r="A261" s="4">
+        <v>2141</v>
       </c>
       <c r="B261" s="3">
         <v>789</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D261" s="3">
         <v>2012</v>
       </c>
       <c r="E261" s="1">
-        <v>87834.716668254419</v>
+        <v>87834.71666825442</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
-        <v>64</v>
+      <c r="A262" s="4">
+        <v>2114</v>
       </c>
       <c r="B262" s="3">
         <v>789</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D262" s="3">
         <v>2013</v>
       </c>
       <c r="E262" s="1">
-        <v>68606.143553786562</v>
+        <v>68606.14355378656</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
-        <v>0</v>
+      <c r="A263" s="4">
+        <v>2000</v>
       </c>
       <c r="B263" s="3">
         <v>123</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D263" s="3">
         <v>2011</v>
       </c>
       <c r="E263" s="1">
-        <v>29852.494536709841</v>
+        <v>29852.49453670984</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
-        <v>111</v>
+      <c r="A264" s="4">
+        <v>2200</v>
       </c>
       <c r="B264" s="3">
         <v>789</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D264" s="3">
@@ -5774,47 +5777,47 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
-        <v>124</v>
+      <c r="A265" s="4">
+        <v>2138</v>
       </c>
       <c r="B265" s="3">
         <v>456</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D265" s="3">
         <v>2013</v>
       </c>
       <c r="E265" s="1">
-        <v>90142.101779318895</v>
+        <v>90142.1017793189</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
-        <v>42</v>
+      <c r="A266" s="4">
+        <v>2066</v>
       </c>
       <c r="B266" s="3">
         <v>123</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D266" s="3">
         <v>2011</v>
       </c>
       <c r="E266" s="1">
-        <v>82466.974497198462</v>
+        <v>82466.97449719846</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
-        <v>2</v>
+      <c r="A267" s="4">
+        <v>2008</v>
       </c>
       <c r="B267" s="3">
         <v>123</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D267" s="3">
@@ -5825,47 +5828,47 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
-        <v>11</v>
+      <c r="A268" s="4">
+        <v>2022</v>
       </c>
       <c r="B268" s="3">
         <v>789</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D268" s="3">
         <v>2013</v>
       </c>
       <c r="E268" s="1">
-        <v>98199.933992231236</v>
+        <v>98199.93399223124</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
-        <v>34</v>
+      <c r="A269" s="4">
+        <v>2048</v>
       </c>
       <c r="B269" s="3">
         <v>123</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D269" s="3">
         <v>2011</v>
       </c>
       <c r="E269" s="1">
-        <v>87566.658774081458</v>
+        <v>87566.65877408146</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
-        <v>37</v>
+      <c r="A270" s="4">
+        <v>2061</v>
       </c>
       <c r="B270" s="3">
         <v>789</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D270" s="3">
@@ -5876,183 +5879,183 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
-        <v>104</v>
+      <c r="A271" s="4">
+        <v>2193</v>
       </c>
       <c r="B271" s="3">
         <v>123</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D271" s="3">
         <v>2013</v>
       </c>
       <c r="E271" s="1">
-        <v>79937.630132621824</v>
+        <v>79937.63013262182</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
-        <v>122</v>
+      <c r="A272" s="4">
+        <v>2113</v>
       </c>
       <c r="B272" s="3">
         <v>789</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D272" s="3">
         <v>2011</v>
       </c>
       <c r="E272" s="1">
-        <v>70309.548159499944</v>
+        <v>70309.54815949994</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
-        <v>76</v>
+      <c r="A273" s="4">
+        <v>2131</v>
       </c>
       <c r="B273" s="3">
         <v>123</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D273" s="3">
         <v>2012</v>
       </c>
       <c r="E273" s="1">
-        <v>35669.786881524698</v>
+        <v>35669.7868815247</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>4</v>
+      <c r="A274" s="4">
+        <v>2010</v>
       </c>
       <c r="B274" s="3">
         <v>789</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D274" s="3">
         <v>2013</v>
       </c>
       <c r="E274" s="1">
-        <v>95019.357662414681</v>
+        <v>95019.35766241468</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
-        <v>6</v>
+      <c r="A275" s="4">
+        <v>2015</v>
       </c>
       <c r="B275" s="3">
         <v>456</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D275" s="3">
         <v>2011</v>
       </c>
       <c r="E275" s="1">
-        <v>79888.060674589389</v>
+        <v>79888.06067458939</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
-        <v>66</v>
+      <c r="A276" s="4">
+        <v>2116</v>
       </c>
       <c r="B276" s="3">
         <v>789</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D276" s="3">
         <v>2012</v>
       </c>
       <c r="E276" s="1">
-        <v>46537.458896757889</v>
+        <v>46537.45889675789</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
-        <v>45</v>
+      <c r="A277" s="4">
+        <v>2069</v>
       </c>
       <c r="B277" s="3">
         <v>456</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D277" s="3">
         <v>2013</v>
       </c>
       <c r="E277" s="1">
-        <v>69285.422211530153</v>
+        <v>69285.42221153015</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
-        <v>63</v>
+      <c r="A278" s="4">
+        <v>2112</v>
       </c>
       <c r="B278" s="3">
         <v>789</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D278" s="3">
         <v>2011</v>
       </c>
       <c r="E278" s="1">
-        <v>75681.737828995887</v>
+        <v>75681.73782899589</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
-        <v>118</v>
+      <c r="A279" s="4">
+        <v>2033</v>
       </c>
       <c r="B279" s="3">
         <v>456</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D279" s="3">
         <v>2012</v>
       </c>
       <c r="E279" s="1">
-        <v>39497.319482195591</v>
+        <v>39497.31948219559</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
-        <v>40</v>
+      <c r="A280" s="4">
+        <v>2064</v>
       </c>
       <c r="B280" s="3">
         <v>123</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D280" s="3">
         <v>2013</v>
       </c>
       <c r="E280" s="1">
-        <v>27992.322568737782</v>
+        <v>27992.32256873778</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
-        <v>94</v>
+      <c r="A281" s="4">
+        <v>2161</v>
       </c>
       <c r="B281" s="3">
         <v>123</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D281" s="3">
@@ -6063,13 +6066,13 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
-        <v>101</v>
+      <c r="A282" s="4">
+        <v>2190</v>
       </c>
       <c r="B282" s="3">
         <v>123</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D282" s="3">
@@ -6080,13 +6083,13 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
-        <v>1</v>
+      <c r="A283" s="4">
+        <v>2007</v>
       </c>
       <c r="B283" s="3">
         <v>456</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D283" s="3">
@@ -6097,13 +6100,13 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
-        <v>96</v>
+      <c r="A284" s="4">
+        <v>2163</v>
       </c>
       <c r="B284" s="3">
         <v>456</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D284" s="3">
@@ -6114,13 +6117,13 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
-        <v>92</v>
+      <c r="A285" s="4">
+        <v>2153</v>
       </c>
       <c r="B285" s="3">
         <v>456</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D285" s="3">
@@ -6131,13 +6134,13 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
-        <v>54</v>
+      <c r="A286" s="4">
+        <v>2092</v>
       </c>
       <c r="B286" s="3">
         <v>123</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D286" s="3">
@@ -6148,30 +6151,30 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
-        <v>25</v>
+      <c r="A287" s="4">
+        <v>2039</v>
       </c>
       <c r="B287" s="3">
         <v>456</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D287" s="3">
         <v>2011</v>
       </c>
       <c r="E287" s="1">
-        <v>55997.710344301369</v>
+        <v>55997.71034430137</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>50</v>
+      <c r="A288" s="4">
+        <v>2086</v>
       </c>
       <c r="B288" s="3">
         <v>789</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D288" s="3">
@@ -6182,13 +6185,13 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
-        <v>113</v>
+      <c r="A289" s="4">
+        <v>2204</v>
       </c>
       <c r="B289" s="3">
         <v>123</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D289" s="3">
@@ -6199,64 +6202,64 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>33</v>
+      <c r="A290" s="4">
+        <v>2047</v>
       </c>
       <c r="B290" s="3">
         <v>456</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D290" s="3">
         <v>2011</v>
       </c>
       <c r="E290" s="1">
-        <v>99865.211571912369</v>
+        <v>99865.21157191237</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
-        <v>115</v>
+      <c r="A291" s="4">
+        <v>2206</v>
       </c>
       <c r="B291" s="3">
         <v>123</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D291" s="3">
         <v>2012</v>
       </c>
       <c r="E291" s="1">
-        <v>37001.906066425508</v>
+        <v>37001.90606642551</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
-        <v>3</v>
+      <c r="A292" s="4">
+        <v>2009</v>
       </c>
       <c r="B292" s="3">
         <v>789</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D292" s="3">
         <v>2013</v>
       </c>
       <c r="E292" s="1">
-        <v>86506.424327100161</v>
+        <v>86506.42432710016</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
-        <v>108</v>
+      <c r="A293" s="4">
+        <v>2197</v>
       </c>
       <c r="B293" s="3">
         <v>123</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D293" s="3">
@@ -6267,47 +6270,47 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
-        <v>38</v>
+      <c r="A294" s="4">
+        <v>2062</v>
       </c>
       <c r="B294" s="3">
         <v>789</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D294" s="3">
         <v>2012</v>
       </c>
       <c r="E294" s="1">
-        <v>95385.949890402495</v>
+        <v>95385.9498904025</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
-        <v>115</v>
+      <c r="A295" s="4">
+        <v>2206</v>
       </c>
       <c r="B295" s="3">
         <v>456</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D295" s="3">
         <v>2013</v>
       </c>
       <c r="E295" s="1">
-        <v>53130.246859019368</v>
+        <v>53130.24685901937</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>69</v>
+      <c r="A296" s="4">
+        <v>2119</v>
       </c>
       <c r="B296" s="3">
         <v>123</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D296" s="3">
@@ -6318,47 +6321,47 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>8</v>
+      <c r="A297" s="4">
+        <v>2017</v>
       </c>
       <c r="B297" s="3">
         <v>789</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D297" s="3">
         <v>2012</v>
       </c>
       <c r="E297" s="1">
-        <v>86748.699848403427</v>
+        <v>86748.69984840343</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
-        <v>77</v>
+      <c r="A298" s="4">
+        <v>2132</v>
       </c>
       <c r="B298" s="3">
         <v>456</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D298" s="3">
         <v>2013</v>
       </c>
       <c r="E298" s="1">
-        <v>80783.343761081022</v>
+        <v>80783.34376108102</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
-        <v>42</v>
+      <c r="A299" s="4">
+        <v>2066</v>
       </c>
       <c r="B299" s="3">
         <v>789</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D299" s="3">
@@ -6369,13 +6372,13 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
-        <v>48</v>
+      <c r="A300" s="4">
+        <v>2072</v>
       </c>
       <c r="B300" s="3">
         <v>789</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D300" s="3">
@@ -6386,30 +6389,30 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
-        <v>120</v>
+      <c r="A301" s="4">
+        <v>2088</v>
       </c>
       <c r="B301" s="3">
         <v>123</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D301" s="3">
         <v>2013</v>
       </c>
       <c r="E301" s="1">
-        <v>67071.584750754177</v>
+        <v>67071.58475075418</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="4" t="s">
-        <v>107</v>
+      <c r="A302" s="4">
+        <v>2196</v>
       </c>
       <c r="B302" s="3">
         <v>456</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D302" s="3">
@@ -6420,13 +6423,13 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="4" t="s">
-        <v>96</v>
+      <c r="A303" s="4">
+        <v>2163</v>
       </c>
       <c r="B303" s="3">
         <v>123</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D303" s="3">
@@ -6437,13 +6440,13 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="4" t="s">
-        <v>117</v>
+      <c r="A304" s="4">
+        <v>2006</v>
       </c>
       <c r="B304" s="3">
         <v>456</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D304" s="3">
@@ -6454,132 +6457,132 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="4" t="s">
-        <v>19</v>
+      <c r="A305" s="4">
+        <v>2030</v>
       </c>
       <c r="B305" s="3">
         <v>789</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="C305" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D305" s="3">
         <v>2011</v>
       </c>
       <c r="E305" s="1">
-        <v>19129.773248817572</v>
+        <v>19129.77324881757</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="4" t="s">
-        <v>51</v>
+      <c r="A306" s="4">
+        <v>2087</v>
       </c>
       <c r="B306" s="3">
         <v>456</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="C306" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D306" s="3">
         <v>2012</v>
       </c>
       <c r="E306" s="1">
-        <v>72140.571581141106</v>
+        <v>72140.5715811411</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
-        <v>52</v>
+      <c r="A307" s="4">
+        <v>2089</v>
       </c>
       <c r="B307" s="3">
         <v>456</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="C307" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D307" s="3">
         <v>2013</v>
       </c>
       <c r="E307" s="1">
-        <v>67958.152757360498</v>
+        <v>67958.1527573605</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="4" t="s">
-        <v>107</v>
+      <c r="A308" s="4">
+        <v>2196</v>
       </c>
       <c r="B308" s="3">
         <v>789</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="C308" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D308" s="3">
         <v>2011</v>
       </c>
       <c r="E308" s="1">
-        <v>60643.718669159563</v>
+        <v>60643.71866915956</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
-        <v>124</v>
+      <c r="A309" s="4">
+        <v>2138</v>
       </c>
       <c r="B309" s="3">
         <v>123</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="C309" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D309" s="3">
         <v>2012</v>
       </c>
       <c r="E309" s="1">
-        <v>61284.726618473927</v>
+        <v>61284.72661847393</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="4" t="s">
-        <v>125</v>
+      <c r="A310" s="4">
+        <v>2139</v>
       </c>
       <c r="B310" s="3">
         <v>456</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="C310" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D310" s="3">
         <v>2013</v>
       </c>
       <c r="E310" s="1">
-        <v>91989.482331512045</v>
+        <v>91989.48233151204</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="4" t="s">
-        <v>105</v>
+      <c r="A311" s="4">
+        <v>2194</v>
       </c>
       <c r="B311" s="3">
         <v>456</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="C311" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D311" s="3">
         <v>2011</v>
       </c>
       <c r="E311" s="1">
-        <v>60771.153610060901</v>
+        <v>60771.1536100609</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="4" t="s">
-        <v>50</v>
+      <c r="A312" s="4">
+        <v>2086</v>
       </c>
       <c r="B312" s="3">
         <v>123</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="C312" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D312" s="3">
@@ -6590,13 +6593,13 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="4" t="s">
-        <v>71</v>
+      <c r="A313" s="4">
+        <v>2122</v>
       </c>
       <c r="B313" s="3">
         <v>123</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C313" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D313" s="3">
@@ -6607,13 +6610,13 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
-        <v>24</v>
+      <c r="A314" s="4">
+        <v>2038</v>
       </c>
       <c r="B314" s="3">
         <v>123</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C314" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D314" s="3">
@@ -6624,30 +6627,30 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
-        <v>37</v>
+      <c r="A315" s="4">
+        <v>2061</v>
       </c>
       <c r="B315" s="3">
         <v>123</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C315" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D315" s="3">
         <v>2012</v>
       </c>
       <c r="E315" s="1">
-        <v>40689.839451198473</v>
+        <v>40689.83945119847</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="4" t="s">
-        <v>100</v>
+      <c r="A316" s="4">
+        <v>2170</v>
       </c>
       <c r="B316" s="3">
         <v>123</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="C316" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D316" s="3">
@@ -6658,81 +6661,81 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="4" t="s">
-        <v>80</v>
+      <c r="A317" s="4">
+        <v>2135</v>
       </c>
       <c r="B317" s="3">
         <v>789</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="C317" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D317" s="3">
         <v>2011</v>
       </c>
       <c r="E317" s="1">
-        <v>46688.956043537743</v>
+        <v>46688.95604353774</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="4" t="s">
-        <v>76</v>
+      <c r="A318" s="4">
+        <v>2131</v>
       </c>
       <c r="B318" s="3">
         <v>789</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="C318" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D318" s="3">
         <v>2012</v>
       </c>
       <c r="E318" s="1">
-        <v>30040.114626924031</v>
+        <v>30040.11462692403</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="4" t="s">
-        <v>121</v>
+      <c r="A319" s="4">
+        <v>2091</v>
       </c>
       <c r="B319" s="3">
         <v>123</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="C319" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D319" s="3">
         <v>2013</v>
       </c>
       <c r="E319" s="1">
-        <v>57249.675470779759</v>
+        <v>57249.67547077976</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
-        <v>28</v>
+      <c r="A320" s="4">
+        <v>2042</v>
       </c>
       <c r="B320" s="3">
         <v>123</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="C320" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D320" s="3">
         <v>2011</v>
       </c>
       <c r="E320" s="1">
-        <v>38291.873374592098</v>
+        <v>38291.8733745921</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="4" t="s">
-        <v>114</v>
+      <c r="A321" s="4">
+        <v>2205</v>
       </c>
       <c r="B321" s="3">
         <v>456</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="C321" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D321" s="3">
@@ -6743,115 +6746,115 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="4" t="s">
-        <v>126</v>
+      <c r="A322" s="4">
+        <v>2150</v>
       </c>
       <c r="B322" s="3">
         <v>456</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C322" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D322" s="3">
         <v>2013</v>
       </c>
       <c r="E322" s="1">
-        <v>73270.084703512941</v>
+        <v>73270.08470351294</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
-        <v>46</v>
+      <c r="A323" s="4">
+        <v>2070</v>
       </c>
       <c r="B323" s="3">
         <v>456</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="C323" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D323" s="3">
         <v>2011</v>
       </c>
       <c r="E323" s="1">
-        <v>58037.660633320353</v>
+        <v>58037.66063332035</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="4" t="s">
-        <v>43</v>
+      <c r="A324" s="4">
+        <v>2067</v>
       </c>
       <c r="B324" s="3">
         <v>456</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="C324" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D324" s="3">
         <v>2012</v>
       </c>
       <c r="E324" s="1">
-        <v>42027.345673509531</v>
+        <v>42027.34567350953</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="4" t="s">
-        <v>75</v>
+      <c r="A325" s="4">
+        <v>2130</v>
       </c>
       <c r="B325" s="3">
         <v>123</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="C325" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D325" s="3">
         <v>2013</v>
       </c>
       <c r="E325" s="1">
-        <v>1512.8506210667081</v>
+        <v>1512.850621066708</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="4" t="s">
-        <v>121</v>
+      <c r="A326" s="4">
+        <v>2091</v>
       </c>
       <c r="B326" s="3">
         <v>789</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="C326" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D326" s="3">
         <v>2011</v>
       </c>
       <c r="E326" s="1">
-        <v>32609.621203559091</v>
+        <v>32609.62120355909</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="4" t="s">
-        <v>10</v>
+      <c r="A327" s="4">
+        <v>2021</v>
       </c>
       <c r="B327" s="3">
         <v>123</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="C327" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D327" s="3">
         <v>2012</v>
       </c>
       <c r="E327" s="1">
-        <v>16079.893758980479</v>
+        <v>16079.89375898048</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="4" t="s">
-        <v>39</v>
+      <c r="A328" s="4">
+        <v>2063</v>
       </c>
       <c r="B328" s="3">
         <v>123</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="C328" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D328" s="3">
@@ -6862,115 +6865,115 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="4" t="s">
-        <v>76</v>
+      <c r="A329" s="4">
+        <v>2131</v>
       </c>
       <c r="B329" s="3">
         <v>456</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="C329" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D329" s="3">
         <v>2011</v>
       </c>
       <c r="E329" s="1">
-        <v>66041.271600750508</v>
+        <v>66041.27160075051</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="4" t="s">
-        <v>67</v>
+      <c r="A330" s="4">
+        <v>2117</v>
       </c>
       <c r="B330" s="3">
         <v>123</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="C330" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D330" s="3">
         <v>2012</v>
       </c>
       <c r="E330" s="1">
-        <v>45504.440342310372</v>
+        <v>45504.44034231037</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="4" t="s">
-        <v>60</v>
+      <c r="A331" s="4">
+        <v>2100</v>
       </c>
       <c r="B331" s="3">
         <v>789</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D331" s="3">
         <v>2013</v>
       </c>
       <c r="E331" s="1">
-        <v>55364.509390690531</v>
+        <v>55364.50939069053</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="4" t="s">
-        <v>89</v>
+      <c r="A332" s="4">
+        <v>2147</v>
       </c>
       <c r="B332" s="3">
         <v>456</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="C332" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D332" s="3">
         <v>2011</v>
       </c>
       <c r="E332" s="1">
-        <v>81415.059191779888</v>
+        <v>81415.05919177989</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
-        <v>94</v>
+      <c r="A333" s="4">
+        <v>2161</v>
       </c>
       <c r="B333" s="3">
         <v>456</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="C333" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D333" s="3">
         <v>2012</v>
       </c>
       <c r="E333" s="1">
-        <v>59929.424564085653</v>
+        <v>59929.42456408565</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
-        <v>57</v>
+      <c r="A334" s="4">
+        <v>2095</v>
       </c>
       <c r="B334" s="3">
         <v>789</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="C334" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D334" s="3">
         <v>2013</v>
       </c>
       <c r="E334" s="1">
-        <v>48057.967068290433</v>
+        <v>48057.96706829043</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
-        <v>125</v>
+      <c r="A335" s="4">
+        <v>2139</v>
       </c>
       <c r="B335" s="3">
         <v>789</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="C335" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D335" s="3">
@@ -6981,30 +6984,30 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="4" t="s">
-        <v>127</v>
+      <c r="A336" s="4">
+        <v>2123</v>
       </c>
       <c r="B336" s="3">
         <v>789</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="C336" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D336" s="3">
         <v>2012</v>
       </c>
       <c r="E336" s="1">
-        <v>68917.028280392275</v>
+        <v>68917.02828039227</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
-        <v>40</v>
+      <c r="A337" s="4">
+        <v>2064</v>
       </c>
       <c r="B337" s="3">
         <v>789</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="C337" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D337" s="3">
@@ -7015,47 +7018,47 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
-        <v>72</v>
+      <c r="A338" s="4">
+        <v>2125</v>
       </c>
       <c r="B338" s="3">
         <v>456</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="C338" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D338" s="3">
         <v>2011</v>
       </c>
       <c r="E338" s="1">
-        <v>98235.472710524788</v>
+        <v>98235.47271052479</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
-        <v>91</v>
+      <c r="A339" s="4">
+        <v>2152</v>
       </c>
       <c r="B339" s="3">
         <v>456</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="C339" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D339" s="3">
         <v>2012</v>
       </c>
       <c r="E339" s="1">
-        <v>31708.502262960359</v>
+        <v>31708.50226296036</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
-        <v>62</v>
+      <c r="A340" s="4">
+        <v>2111</v>
       </c>
       <c r="B340" s="3">
         <v>789</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="C340" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D340" s="3">
@@ -7066,30 +7069,30 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
-        <v>32</v>
+      <c r="A341" s="4">
+        <v>2046</v>
       </c>
       <c r="B341" s="3">
         <v>123</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="C341" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D341" s="3">
         <v>2011</v>
       </c>
       <c r="E341" s="1">
-        <v>73977.534340253274</v>
+        <v>73977.53434025327</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
-        <v>122</v>
+      <c r="A342" s="4">
+        <v>2113</v>
       </c>
       <c r="B342" s="3">
         <v>456</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="C342" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D342" s="3">
@@ -7100,30 +7103,30 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
-        <v>111</v>
+      <c r="A343" s="4">
+        <v>2200</v>
       </c>
       <c r="B343" s="3">
         <v>123</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D343" s="3">
         <v>2013</v>
       </c>
       <c r="E343" s="1">
-        <v>58857.779355388571</v>
+        <v>58857.77935538857</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
-        <v>16</v>
+      <c r="A344" s="4">
+        <v>2027</v>
       </c>
       <c r="B344" s="3">
         <v>123</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="C344" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D344" s="3">
@@ -7134,13 +7137,13 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
-        <v>102</v>
+      <c r="A345" s="4">
+        <v>2191</v>
       </c>
       <c r="B345" s="3">
         <v>123</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="C345" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D345" s="3">
@@ -7151,13 +7154,13 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
-        <v>98</v>
+      <c r="A346" s="4">
+        <v>2165</v>
       </c>
       <c r="B346" s="3">
         <v>123</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="C346" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D346" s="3">
@@ -7168,13 +7171,13 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="4" t="s">
-        <v>116</v>
+      <c r="A347" s="4">
+        <v>2050</v>
       </c>
       <c r="B347" s="3">
         <v>123</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="C347" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D347" s="3">
@@ -7185,47 +7188,47 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="4" t="s">
-        <v>41</v>
+      <c r="A348" s="4">
+        <v>2065</v>
       </c>
       <c r="B348" s="3">
         <v>789</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="C348" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D348" s="3">
         <v>2012</v>
       </c>
       <c r="E348" s="1">
-        <v>83495.398446627485</v>
+        <v>83495.39844662749</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="4" t="s">
-        <v>12</v>
+      <c r="A349" s="4">
+        <v>2023</v>
       </c>
       <c r="B349" s="3">
         <v>789</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D349" s="3">
         <v>2013</v>
       </c>
       <c r="E349" s="1">
-        <v>71675.969497926635</v>
+        <v>71675.96949792664</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="4" t="s">
-        <v>45</v>
+      <c r="A350" s="4">
+        <v>2069</v>
       </c>
       <c r="B350" s="3">
         <v>789</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="C350" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D350" s="3">
@@ -7236,47 +7239,47 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="4" t="s">
-        <v>45</v>
+      <c r="A351" s="4">
+        <v>2069</v>
       </c>
       <c r="B351" s="3">
         <v>123</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="C351" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D351" s="3">
         <v>2012</v>
       </c>
       <c r="E351" s="1">
-        <v>44478.410551788103</v>
+        <v>44478.4105517881</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="4" t="s">
-        <v>90</v>
+      <c r="A352" s="4">
+        <v>2151</v>
       </c>
       <c r="B352" s="3">
         <v>456</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="C352" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D352" s="3">
         <v>2013</v>
       </c>
       <c r="E352" s="1">
-        <v>71534.555222165582</v>
+        <v>71534.55522216558</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
-        <v>88</v>
+      <c r="A353" s="4">
+        <v>2146</v>
       </c>
       <c r="B353" s="3">
         <v>456</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="C353" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D353" s="3">
@@ -7287,81 +7290,81 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="4" t="s">
-        <v>23</v>
+      <c r="A354" s="4">
+        <v>2037</v>
       </c>
       <c r="B354" s="3">
         <v>789</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="C354" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D354" s="3">
         <v>2012</v>
       </c>
       <c r="E354" s="1">
-        <v>41511.881874147461</v>
+        <v>41511.88187414746</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="4" t="s">
-        <v>87</v>
+      <c r="A355" s="4">
+        <v>2145</v>
       </c>
       <c r="B355" s="3">
         <v>789</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C355" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D355" s="3">
         <v>2013</v>
       </c>
       <c r="E355" s="1">
-        <v>56897.924731768711</v>
+        <v>56897.92473176871</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
-        <v>87</v>
+      <c r="A356" s="4">
+        <v>2145</v>
       </c>
       <c r="B356" s="3">
         <v>456</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C356" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D356" s="3">
         <v>2011</v>
       </c>
       <c r="E356" s="1">
-        <v>72323.543617223957</v>
+        <v>72323.54361722396</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
-        <v>47</v>
+      <c r="A357" s="4">
+        <v>2071</v>
       </c>
       <c r="B357" s="3">
         <v>789</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="C357" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D357" s="3">
         <v>2012</v>
       </c>
       <c r="E357" s="1">
-        <v>80893.011643939346</v>
+        <v>80893.01164393935</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="4" t="s">
-        <v>103</v>
+      <c r="A358" s="4">
+        <v>2192</v>
       </c>
       <c r="B358" s="3">
         <v>123</v>
       </c>
-      <c r="C358" s="3" t="s">
+      <c r="C358" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D358" s="3">
@@ -7372,47 +7375,47 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="4" t="s">
-        <v>128</v>
+      <c r="A359" s="4">
+        <v>2140</v>
       </c>
       <c r="B359" s="3">
         <v>123</v>
       </c>
-      <c r="C359" s="3" t="s">
+      <c r="C359" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D359" s="3">
         <v>2011</v>
       </c>
       <c r="E359" s="1">
-        <v>89201.682340332889</v>
+        <v>89201.68234033289</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="4" t="s">
-        <v>15</v>
+      <c r="A360" s="4">
+        <v>2026</v>
       </c>
       <c r="B360" s="3">
         <v>789</v>
       </c>
-      <c r="C360" s="3" t="s">
+      <c r="C360" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D360" s="3">
         <v>2012</v>
       </c>
       <c r="E360" s="1">
-        <v>37880.633182900106</v>
+        <v>37880.63318290011</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="4" t="s">
-        <v>118</v>
+      <c r="A361" s="4">
+        <v>2033</v>
       </c>
       <c r="B361" s="3">
         <v>123</v>
       </c>
-      <c r="C361" s="3" t="s">
+      <c r="C361" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D361" s="3">
@@ -7423,81 +7426,81 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="4" t="s">
-        <v>59</v>
+      <c r="A362" s="4">
+        <v>2099</v>
       </c>
       <c r="B362" s="3">
         <v>123</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C362" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D362" s="3">
         <v>2011</v>
       </c>
       <c r="E362" s="1">
-        <v>82289.521607301212</v>
+        <v>82289.52160730121</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
-        <v>72</v>
+      <c r="A363" s="4">
+        <v>2125</v>
       </c>
       <c r="B363" s="3">
         <v>123</v>
       </c>
-      <c r="C363" s="3" t="s">
+      <c r="C363" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D363" s="3">
         <v>2012</v>
       </c>
       <c r="E363" s="1">
-        <v>35987.130650557221</v>
+        <v>35987.13065055722</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
-        <v>52</v>
+      <c r="A364" s="4">
+        <v>2089</v>
       </c>
       <c r="B364" s="3">
         <v>789</v>
       </c>
-      <c r="C364" s="3" t="s">
+      <c r="C364" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D364" s="3">
         <v>2013</v>
       </c>
       <c r="E364" s="1">
-        <v>89068.925597817855</v>
+        <v>89068.92559781786</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
-        <v>81</v>
+      <c r="A365" s="4">
+        <v>2136</v>
       </c>
       <c r="B365" s="3">
         <v>123</v>
       </c>
-      <c r="C365" s="3" t="s">
+      <c r="C365" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D365" s="3">
         <v>2011</v>
       </c>
       <c r="E365" s="1">
-        <v>83058.673231933892</v>
+        <v>83058.67323193389</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="4" t="s">
-        <v>11</v>
+      <c r="A366" s="4">
+        <v>2022</v>
       </c>
       <c r="B366" s="3">
         <v>456</v>
       </c>
-      <c r="C366" s="3" t="s">
+      <c r="C366" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D366" s="3">
@@ -7508,47 +7511,47 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="4" t="s">
-        <v>43</v>
+      <c r="A367" s="4">
+        <v>2067</v>
       </c>
       <c r="B367" s="3">
         <v>123</v>
       </c>
-      <c r="C367" s="3" t="s">
+      <c r="C367" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D367" s="3">
         <v>2013</v>
       </c>
       <c r="E367" s="1">
-        <v>57862.687410397681</v>
+        <v>57862.68741039768</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="4" t="s">
-        <v>73</v>
+      <c r="A368" s="4">
+        <v>2127</v>
       </c>
       <c r="B368" s="3">
         <v>789</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C368" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D368" s="3">
         <v>2011</v>
       </c>
       <c r="E368" s="1">
-        <v>70493.892543089125</v>
+        <v>70493.89254308912</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
-        <v>68</v>
+      <c r="A369" s="4">
+        <v>2118</v>
       </c>
       <c r="B369" s="3">
         <v>456</v>
       </c>
-      <c r="C369" s="3" t="s">
+      <c r="C369" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D369" s="3">
@@ -7559,115 +7562,115 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="4" t="s">
-        <v>41</v>
+      <c r="A370" s="4">
+        <v>2065</v>
       </c>
       <c r="B370" s="3">
         <v>123</v>
       </c>
-      <c r="C370" s="3" t="s">
+      <c r="C370" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D370" s="3">
         <v>2013</v>
       </c>
       <c r="E370" s="1">
-        <v>88484.975604720399</v>
+        <v>88484.9756047204</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="4" t="s">
-        <v>104</v>
+      <c r="A371" s="4">
+        <v>2193</v>
       </c>
       <c r="B371" s="3">
         <v>789</v>
       </c>
-      <c r="C371" s="3" t="s">
+      <c r="C371" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D371" s="3">
         <v>2011</v>
       </c>
       <c r="E371" s="1">
-        <v>82687.122345534663</v>
+        <v>82687.12234553466</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="4" t="s">
-        <v>49</v>
+      <c r="A372" s="4">
+        <v>2073</v>
       </c>
       <c r="B372" s="3">
         <v>456</v>
       </c>
-      <c r="C372" s="3" t="s">
+      <c r="C372" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D372" s="3">
         <v>2012</v>
       </c>
       <c r="E372" s="1">
-        <v>3158.1913192841871</v>
+        <v>3158.191319284187</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="4" t="s">
-        <v>15</v>
+      <c r="A373" s="4">
+        <v>2026</v>
       </c>
       <c r="B373" s="3">
         <v>123</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C373" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D373" s="3">
         <v>2013</v>
       </c>
       <c r="E373" s="1">
-        <v>55338.702311697183</v>
+        <v>55338.70231169718</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="4" t="s">
-        <v>5</v>
+      <c r="A374" s="4">
+        <v>2011</v>
       </c>
       <c r="B374" s="3">
         <v>789</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C374" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D374" s="3">
         <v>2011</v>
       </c>
       <c r="E374" s="1">
-        <v>43355.923235488837</v>
+        <v>43355.92323548884</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="4" t="s">
-        <v>51</v>
+      <c r="A375" s="4">
+        <v>2087</v>
       </c>
       <c r="B375" s="3">
         <v>123</v>
       </c>
-      <c r="C375" s="3" t="s">
+      <c r="C375" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D375" s="3">
         <v>2012</v>
       </c>
       <c r="E375" s="1">
-        <v>9482.6597073668036</v>
+        <v>9482.659707366804</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="4" t="s">
-        <v>13</v>
+      <c r="A376" s="4">
+        <v>2024</v>
       </c>
       <c r="B376" s="3">
         <v>456</v>
       </c>
-      <c r="C376" s="3" t="s">
+      <c r="C376" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D376" s="3">
@@ -7678,13 +7681,13 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="4" t="s">
-        <v>103</v>
+      <c r="A377" s="4">
+        <v>2192</v>
       </c>
       <c r="B377" s="3">
         <v>789</v>
       </c>
-      <c r="C377" s="3" t="s">
+      <c r="C377" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D377" s="3">
@@ -7695,115 +7698,115 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="4" t="s">
-        <v>123</v>
+      <c r="A378" s="4">
+        <v>2109</v>
       </c>
       <c r="B378" s="3">
         <v>456</v>
       </c>
-      <c r="C378" s="3" t="s">
+      <c r="C378" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D378" s="3">
         <v>2012</v>
       </c>
       <c r="E378" s="1">
-        <v>45718.959503279279</v>
+        <v>45718.95950327928</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="4" t="s">
-        <v>75</v>
+      <c r="A379" s="4">
+        <v>2130</v>
       </c>
       <c r="B379" s="3">
         <v>789</v>
       </c>
-      <c r="C379" s="3" t="s">
+      <c r="C379" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D379" s="3">
         <v>2013</v>
       </c>
       <c r="E379" s="1">
-        <v>51693.360717482428</v>
+        <v>51693.36071748243</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="4" t="s">
-        <v>105</v>
+      <c r="A380" s="4">
+        <v>2194</v>
       </c>
       <c r="B380" s="3">
         <v>123</v>
       </c>
-      <c r="C380" s="3" t="s">
+      <c r="C380" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D380" s="3">
         <v>2011</v>
       </c>
       <c r="E380" s="1">
-        <v>66864.306867993262</v>
+        <v>66864.30686799326</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="4" t="s">
-        <v>83</v>
+      <c r="A381" s="4">
+        <v>2141</v>
       </c>
       <c r="B381" s="3">
         <v>123</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D381" s="3">
         <v>2012</v>
       </c>
       <c r="E381" s="1">
-        <v>54682.868831378692</v>
+        <v>54682.86883137869</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="4" t="s">
-        <v>81</v>
+      <c r="A382" s="4">
+        <v>2136</v>
       </c>
       <c r="B382" s="3">
         <v>789</v>
       </c>
-      <c r="C382" s="3" t="s">
+      <c r="C382" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D382" s="3">
         <v>2013</v>
       </c>
       <c r="E382" s="1">
-        <v>881.77438140252252</v>
+        <v>881.7743814025225</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="4" t="s">
-        <v>118</v>
+      <c r="A383" s="4">
+        <v>2033</v>
       </c>
       <c r="B383" s="3">
         <v>789</v>
       </c>
-      <c r="C383" s="3" t="s">
+      <c r="C383" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D383" s="3">
         <v>2011</v>
       </c>
       <c r="E383" s="1">
-        <v>76990.365801360444</v>
+        <v>76990.36580136044</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="4" t="s">
-        <v>48</v>
+      <c r="A384" s="4">
+        <v>2072</v>
       </c>
       <c r="B384" s="3">
         <v>123</v>
       </c>
-      <c r="C384" s="3" t="s">
+      <c r="C384" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D384" s="3">
@@ -7814,47 +7817,47 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
-        <v>39</v>
+      <c r="A385" s="4">
+        <v>2063</v>
       </c>
       <c r="B385" s="3">
         <v>456</v>
       </c>
-      <c r="C385" s="3" t="s">
+      <c r="C385" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D385" s="3">
         <v>2013</v>
       </c>
       <c r="E385" s="1">
-        <v>93341.164487398361</v>
+        <v>93341.16448739836</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="4" t="s">
-        <v>9</v>
+      <c r="A386" s="4">
+        <v>2018</v>
       </c>
       <c r="B386" s="3">
         <v>789</v>
       </c>
-      <c r="C386" s="3" t="s">
+      <c r="C386" t="s" s="3">
         <v>134</v>
       </c>
       <c r="D386" s="3">
         <v>2011</v>
       </c>
       <c r="E386" s="1">
-        <v>97167.784506557669</v>
+        <v>97167.78450655767</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="4" t="s">
-        <v>97</v>
+      <c r="A387" s="4">
+        <v>2164</v>
       </c>
       <c r="B387" s="3">
         <v>123</v>
       </c>
-      <c r="C387" s="3" t="s">
+      <c r="C387" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D387" s="3">
@@ -7865,64 +7868,64 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="4" t="s">
-        <v>104</v>
+      <c r="A388" s="4">
+        <v>2193</v>
       </c>
       <c r="B388" s="3">
         <v>456</v>
       </c>
-      <c r="C388" s="3" t="s">
+      <c r="C388" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D388" s="3">
         <v>2013</v>
       </c>
       <c r="E388" s="1">
-        <v>79440.290812560823</v>
+        <v>79440.29081256082</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
-        <v>20</v>
+      <c r="A389" s="4">
+        <v>2031</v>
       </c>
       <c r="B389" s="3">
         <v>123</v>
       </c>
-      <c r="C389" s="3" t="s">
+      <c r="C389" t="s" s="3">
         <v>133</v>
       </c>
       <c r="D389" s="3">
         <v>2011</v>
       </c>
       <c r="E389" s="1">
-        <v>65643.689453656072</v>
+        <v>65643.68945365607</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="4" t="s">
-        <v>75</v>
+      <c r="A390" s="4">
+        <v>2130</v>
       </c>
       <c r="B390" s="3">
         <v>456</v>
       </c>
-      <c r="C390" s="3" t="s">
+      <c r="C390" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D390" s="3">
         <v>2012</v>
       </c>
       <c r="E390" s="1">
-        <v>66247.874868721046</v>
+        <v>66247.87486872105</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="4" t="s">
-        <v>66</v>
+      <c r="A391" s="4">
+        <v>2116</v>
       </c>
       <c r="B391" s="3">
         <v>456</v>
       </c>
-      <c r="C391" s="3" t="s">
+      <c r="C391" t="s" s="3">
         <v>135</v>
       </c>
       <c r="D391" s="3">

--- a/server/src/uploads/sample1.xlsx
+++ b/server/src/uploads/sample1.xlsx
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve">222222222222222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">789</t>
   </si>
 </sst>
 </file>
@@ -1312,14 +1315,14 @@
       <c r="B2">
         <v>456</v>
       </c>
-      <c r="C2" t="s">
-        <v>138</v>
+      <c r="C2">
+        <v>222222222222222</v>
       </c>
       <c r="D2" s="3">
         <v>2011</v>
       </c>
-      <c r="E2" s="1">
-        <v>84219.49731068664</v>
+      <c r="E2" t="s" s="1">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
